--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ45"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,35 +890,93 @@
           <t>Alajuelense</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="T5" t="n">
+        <v>7</v>
+      </c>
+      <c r="U5" t="n">
+        <v>11</v>
+      </c>
+      <c r="V5" t="n">
+        <v>11</v>
+      </c>
+      <c r="W5" t="n">
+        <v>26</v>
+      </c>
+      <c r="X5" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>41</v>
+      </c>
       <c r="AJ5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -952,41 +1010,99 @@
           <t>Chrudim</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="V6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>9</v>
+      </c>
+      <c r="X6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>200</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>120</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>j9arHh0T</t>
+          <t>2wAY9wef</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -996,59 +1112,119 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ECUADOR - SERIE B</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ind. Juniors</t>
+          <t>Vyskov</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vargas Torres</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+          <t>Dukla Prague</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K7" t="n">
+        <v>9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="U7" t="n">
+        <v>26</v>
+      </c>
+      <c r="V7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>80</v>
+      </c>
+      <c r="X7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2mT0ZZFc</t>
+          <t>j9arHh0T</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1058,7 +1234,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1068,12 +1244,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Atletico Vinotinto</t>
+          <t>Ind. Juniors</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Nueve de Octubre</t>
+          <t>Vargas Torres</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1110,7 +1286,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lxosC83U</t>
+          <t>2mT0ZZFc</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1120,117 +1296,59 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ECUADOR - SERIE B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Atletico Vinotinto</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pharco</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="H9" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T9" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="V9" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>150</v>
-      </c>
+          <t>Nueve de Octubre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
       <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6DH7STmB</t>
+          <t>lxosC83U</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1250,107 +1368,107 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Masry</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="N10" t="n">
         <v>1.65</v>
       </c>
-      <c r="H10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K10" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.27</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="R10" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>5.1</v>
+        <v>6.4</v>
       </c>
       <c r="U10" t="n">
-        <v>6.4</v>
+        <v>5.5</v>
       </c>
       <c r="V10" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="W10" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X10" t="n">
         <v>11.5</v>
       </c>
-      <c r="X10" t="n">
-        <v>16</v>
-      </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.1</v>
+        <v>8.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>7</v>
+        <v>11.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>45</v>
       </c>
       <c r="AG10" t="n">
-        <v>110</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="AI10" t="n">
-        <v>90</v>
+        <v>175</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>v1QjWBln</t>
+          <t>6DH7STmB</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1370,109 +1488,107 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Al Masry</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pyramids</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>5.4</v>
       </c>
       <c r="J11" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="M11" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="N11" t="n">
-        <v>1.9</v>
+        <v>2.42</v>
       </c>
       <c r="O11" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.78</v>
+        <v>2.37</v>
       </c>
       <c r="S11" t="n">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="T11" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>9</v>
+      </c>
+      <c r="W11" t="n">
         <v>11.75</v>
       </c>
-      <c r="U11" t="n">
-        <v>23</v>
-      </c>
-      <c r="V11" t="n">
-        <v>13</v>
-      </c>
-      <c r="W11" t="n">
-        <v>65</v>
-      </c>
       <c r="X11" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>24</v>
       </c>
       <c r="AC11" t="n">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.9</v>
+        <v>10.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>8.5</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>500</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>YaJaUkJb</t>
+          <t>v1QjWBln</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1492,40 +1608,40 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Petrojet</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>National Bank Egypt</t>
+          <t>Pyramids</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.55</v>
+        <v>4.35</v>
       </c>
       <c r="H12" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.27</v>
+        <v>1.78</v>
       </c>
       <c r="J12" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N12" t="n">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="P12" t="n">
         <v>1.44</v>
@@ -1534,67 +1650,67 @@
         <v>2.62</v>
       </c>
       <c r="R12" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>9.25</v>
+        <v>11.5</v>
       </c>
       <c r="U12" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V12" t="n">
-        <v>11.75</v>
+        <v>14.5</v>
       </c>
       <c r="W12" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="X12" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>10.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OhQVYP9L</t>
+          <t>YaJaUkJb</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1604,59 +1720,119 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kalju</t>
+          <t>Petrojet</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Paide</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+          <t>National Bank Egypt</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U13" t="n">
+        <v>19</v>
+      </c>
+      <c r="V13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>55</v>
+      </c>
+      <c r="X13" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SQWMznu9</t>
+          <t>OhQVYP9L</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1676,12 +1852,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Levadia</t>
+          <t>Kalju</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Parnu JK Vaprus</t>
+          <t>Paide</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1718,7 +1894,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MwBc1T8r</t>
+          <t>SQWMznu9</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1733,17 +1909,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dila Gori</t>
+          <t>Levadia</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dinamo Tbilisi</t>
+          <t>Parnu JK Vaprus</t>
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
@@ -1780,7 +1956,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pvHU1WCk</t>
+          <t>MwBc1T8r</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1790,22 +1966,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Dila Gori</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Dinamo Tbilisi</t>
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
@@ -1842,7 +2018,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YacPNDZ8</t>
+          <t>pvHU1WCk</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1862,12 +2038,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>L.R. Vicenza</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
@@ -1904,7 +2080,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jDL13UkC</t>
+          <t>YacPNDZ8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1914,119 +2090,59 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cerezo Osaka</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>11</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" t="n">
-        <v>8</v>
-      </c>
-      <c r="U18" t="n">
-        <v>10</v>
-      </c>
-      <c r="V18" t="n">
-        <v>9</v>
-      </c>
-      <c r="W18" t="n">
-        <v>19</v>
-      </c>
-      <c r="X18" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>201</v>
-      </c>
+          <t>L.R. Vicenza</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>h86rkCXA</t>
+          <t>jDL13UkC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2036,59 +2152,119 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NETHERLANDS - TWEEDE DIVISIE</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Harkemase Boys</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Meerssen</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+          <t>Cerezo Osaka</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K19" t="n">
+        <v>11</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T19" t="n">
+        <v>8</v>
+      </c>
+      <c r="U19" t="n">
+        <v>10</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>19</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tS7JjP8F</t>
+          <t>h86rkCXA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2098,7 +2274,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -2108,12 +2284,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kozakken Boys</t>
+          <t>Harkemase Boys</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>VV DOVO</t>
+          <t>Meerssen</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -2150,7 +2326,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YmLRlrMU</t>
+          <t>tS7JjP8F</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2160,7 +2336,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2170,12 +2346,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Noordwijk</t>
+          <t>VV DOVO</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blauw Geel</t>
+          <t>Kozakken Boys</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -2212,7 +2388,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>48TAhQM5</t>
+          <t>YmLRlrMU</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2222,7 +2398,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2232,12 +2408,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Scheveningen</t>
+          <t>Noordwijk</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sportlust</t>
+          <t>Blauw Geel</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -2274,7 +2450,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>rm0xDugc</t>
+          <t>48TAhQM5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2284,119 +2460,59 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NORWAY - ELITESERIEN</t>
+          <t>NETHERLANDS - TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Fredrikstad</t>
+          <t>Sportlust</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rosenborg</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K23" t="n">
-        <v>10</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U23" t="n">
-        <v>15</v>
-      </c>
-      <c r="V23" t="n">
-        <v>11</v>
-      </c>
-      <c r="W23" t="n">
-        <v>34</v>
-      </c>
-      <c r="X23" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>301</v>
-      </c>
+          <t>Scheveningen</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SEYbGEak</t>
+          <t>rm0xDugc</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2406,7 +2522,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2416,109 +2532,109 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bodo/Glimt</t>
+          <t>Fredrikstad</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Viking</t>
+          <t>Rosenborg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
+        <v>9</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T24" t="n">
+        <v>9</v>
+      </c>
+      <c r="U24" t="n">
+        <v>15</v>
+      </c>
+      <c r="V24" t="n">
+        <v>11</v>
+      </c>
+      <c r="W24" t="n">
+        <v>29</v>
+      </c>
+      <c r="X24" t="n">
         <v>23</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="M24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T24" t="n">
-        <v>12</v>
-      </c>
-      <c r="U24" t="n">
+      <c r="Y24" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>11</v>
       </c>
-      <c r="V24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>15</v>
-      </c>
-      <c r="X24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z24" t="n">
+      <c r="AF24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>23</v>
       </c>
-      <c r="AA24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AH24" t="n">
         <v>21</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>34</v>
       </c>
       <c r="AI24" t="n">
         <v>29</v>
       </c>
       <c r="AJ24" t="n">
-        <v>81</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>O6qCiFvC</t>
+          <t>SEYbGEak</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2528,54 +2644,114 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RUSSIA - PREMIER LEAGUE</t>
+          <t>NORWAY - ELITESERIEN</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sochi</t>
+          <t>Bodo/Glimt</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pari NN</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+          <t>Viking</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K25" t="n">
+        <v>23</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T25" t="n">
+        <v>13</v>
+      </c>
+      <c r="U25" t="n">
+        <v>11</v>
+      </c>
+      <c r="V25" t="n">
+        <v>9</v>
+      </c>
+      <c r="W25" t="n">
+        <v>13</v>
+      </c>
+      <c r="X25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2642,7 +2818,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EHR8AatK</t>
+          <t>O6qCiFvC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2652,119 +2828,59 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>RUSSIA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Sochi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Anyang</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T27" t="n">
-        <v>7</v>
-      </c>
-      <c r="U27" t="n">
-        <v>11</v>
-      </c>
-      <c r="V27" t="n">
-        <v>10</v>
-      </c>
-      <c r="W27" t="n">
-        <v>23</v>
-      </c>
-      <c r="X27" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>401</v>
-      </c>
+          <t>Pari NN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>nBZMndlD</t>
+          <t>vPtO9cMa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2774,119 +2890,59 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Mladost GAT</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Seoul</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K28" t="n">
-        <v>9</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T28" t="n">
-        <v>8</v>
-      </c>
-      <c r="U28" t="n">
-        <v>12</v>
-      </c>
-      <c r="V28" t="n">
-        <v>10</v>
-      </c>
-      <c r="W28" t="n">
-        <v>26</v>
-      </c>
-      <c r="X28" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>301</v>
-      </c>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bk3u5w4s</t>
+          <t>rHwu6FLO</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2896,119 +2952,59 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gwangju FC</t>
+          <t>Macva</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K29" t="n">
-        <v>8</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U29" t="n">
-        <v>15</v>
-      </c>
-      <c r="V29" t="n">
-        <v>12</v>
-      </c>
-      <c r="W29" t="n">
-        <v>34</v>
-      </c>
-      <c r="X29" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>401</v>
-      </c>
+          <t>Radnicki Nis</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>W6PabqjL</t>
+          <t>EHR8AatK</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3018,59 +3014,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+          <t>Anyang</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7</v>
+      </c>
+      <c r="U30" t="n">
+        <v>11</v>
+      </c>
+      <c r="V30" t="n">
+        <v>10</v>
+      </c>
+      <c r="W30" t="n">
+        <v>23</v>
+      </c>
+      <c r="X30" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>401</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bm2Dx2T1</t>
+          <t>nBZMndlD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3080,119 +3136,119 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>Seoul</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="H31" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J31" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L31" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="M31" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="N31" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="O31" t="n">
-        <v>2.15</v>
+        <v>1.73</v>
       </c>
       <c r="P31" t="n">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="T31" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="U31" t="n">
         <v>12</v>
       </c>
       <c r="V31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W31" t="n">
+        <v>23</v>
+      </c>
+      <c r="X31" t="n">
         <v>21</v>
       </c>
-      <c r="X31" t="n">
-        <v>17</v>
-      </c>
       <c r="Y31" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Z31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB31" t="n">
         <v>15</v>
       </c>
-      <c r="AA31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>12</v>
-      </c>
       <c r="AC31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
       </c>
       <c r="AG31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI31" t="n">
         <v>34</v>
       </c>
-      <c r="AH31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ31" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OtMi05L8</t>
+          <t>bk3u5w4s</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3202,59 +3258,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Gwangju FC</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+          <t>Ulsan HD</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K32" t="n">
+        <v>8</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15</v>
+      </c>
+      <c r="V32" t="n">
+        <v>12</v>
+      </c>
+      <c r="W32" t="n">
+        <v>34</v>
+      </c>
+      <c r="X32" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>401</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>QZ35vObk</t>
+          <t>W6PabqjL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3274,109 +3390,109 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.42</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="J33" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="M33" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="O33" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="P33" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T33" t="n">
+        <v>11</v>
+      </c>
+      <c r="U33" t="n">
+        <v>15</v>
+      </c>
+      <c r="V33" t="n">
         <v>10</v>
       </c>
-      <c r="U33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W33" t="n">
+        <v>26</v>
+      </c>
+      <c r="X33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB33" t="n">
         <v>11</v>
       </c>
-      <c r="X33" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y33" t="n">
+      <c r="AC33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH33" t="n">
         <v>19</v>
       </c>
-      <c r="Z33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>41</v>
-      </c>
       <c r="AI33" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AJ33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bPJQo66F</t>
+          <t>bm2Dx2T1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3396,49 +3512,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K34" t="n">
+        <v>13</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>12</v>
+      </c>
+      <c r="V34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W34" t="n">
+        <v>23</v>
+      </c>
+      <c r="X34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6kNYqpyS</t>
+          <t>OtMi05L8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3458,46 +3634,46 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I35" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="M35" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="N35" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="O35" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="P35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R35" t="n">
         <v>1.75</v>
@@ -3506,49 +3682,49 @@
         <v>2</v>
       </c>
       <c r="T35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V35" t="n">
         <v>8.5</v>
       </c>
       <c r="W35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
         <v>15</v>
       </c>
       <c r="AC35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG35" t="n">
         <v>51</v>
       </c>
-      <c r="AD35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG35" t="n">
+      <c r="AH35" t="n">
         <v>41</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>34</v>
       </c>
       <c r="AI35" t="n">
         <v>41</v>
@@ -3560,7 +3736,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xAVHmSy3</t>
+          <t>QZ35vObk</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3580,100 +3756,100 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.9</v>
+        <v>1.44</v>
       </c>
       <c r="H36" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="I36" t="n">
-        <v>2.35</v>
+        <v>5.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K36" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="P36" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T36" t="n">
+        <v>10</v>
+      </c>
+      <c r="U36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W36" t="n">
         <v>11</v>
       </c>
-      <c r="U36" t="n">
-        <v>15</v>
-      </c>
-      <c r="V36" t="n">
+      <c r="X36" t="n">
         <v>11</v>
       </c>
-      <c r="W36" t="n">
-        <v>29</v>
-      </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>21</v>
       </c>
-      <c r="Y36" t="n">
-        <v>29</v>
-      </c>
       <c r="Z36" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AB36" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
         <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AE36" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AF36" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="n">
         <v>151</v>
@@ -3682,7 +3858,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Gv1WhNDr</t>
+          <t>bPJQo66F</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3692,7 +3868,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3702,46 +3878,46 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="H37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L37" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M37" t="n">
         <v>3.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
         <v>1.75</v>
@@ -3750,25 +3926,25 @@
         <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U37" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
         <v>23</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
         <v>7</v>
@@ -3777,25 +3953,25 @@
         <v>15</v>
       </c>
       <c r="AC37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF37" t="n">
         <v>13</v>
       </c>
-      <c r="AE37" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>15</v>
-      </c>
       <c r="AG37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI37" t="n">
         <v>34</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>41</v>
       </c>
       <c r="AJ37" t="n">
         <v>201</v>
@@ -3804,7 +3980,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>I3cmkuD7</t>
+          <t>6kNYqpyS</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -3814,7 +3990,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -3824,40 +4000,40 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -3875,37 +4051,37 @@
         <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB38" t="n">
         <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF38" t="n">
         <v>13</v>
@@ -3914,10 +4090,10 @@
         <v>41</v>
       </c>
       <c r="AH38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="n">
         <v>201</v>
@@ -3926,7 +4102,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>O44vi1re</t>
+          <t>xAVHmSy3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3936,7 +4112,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3946,109 +4122,109 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K39" t="n">
+        <v>12</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="n">
         <v>1.8</v>
       </c>
-      <c r="H39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I39" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T39" t="n">
         <v>11</v>
       </c>
-      <c r="L39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S39" t="n">
-        <v>2</v>
-      </c>
-      <c r="T39" t="n">
-        <v>7.5</v>
-      </c>
       <c r="U39" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="V39" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="X39" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Y39" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI39" t="n">
         <v>23</v>
       </c>
-      <c r="Z39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>41</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AcpZCr5E</t>
+          <t>Gv1WhNDr</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4058,7 +4234,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4068,109 +4244,109 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="H40" t="n">
         <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J40" t="n">
         <v>1.03</v>
       </c>
       <c r="K40" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="M40" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="O40" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="P40" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W40" t="n">
+        <v>13</v>
+      </c>
+      <c r="X40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z40" t="n">
         <v>12</v>
       </c>
-      <c r="V40" t="n">
-        <v>9</v>
-      </c>
-      <c r="W40" t="n">
-        <v>19</v>
-      </c>
-      <c r="X40" t="n">
+      <c r="AA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB40" t="n">
         <v>15</v>
       </c>
-      <c r="Y40" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>12</v>
-      </c>
       <c r="AC40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH40" t="n">
         <v>34</v>
       </c>
-      <c r="AD40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG40" t="n">
+      <c r="AI40" t="n">
         <v>41</v>
       </c>
-      <c r="AH40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ40" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>x8UD50cl</t>
+          <t>I3cmkuD7</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4180,7 +4356,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4190,91 +4366,91 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="H41" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J41" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K41" t="n">
+        <v>10</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2</v>
+      </c>
+      <c r="T41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>9</v>
+      </c>
+      <c r="W41" t="n">
+        <v>17</v>
+      </c>
+      <c r="X41" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE41" t="n">
         <v>19</v>
       </c>
-      <c r="L41" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T41" t="n">
-        <v>11</v>
-      </c>
-      <c r="U41" t="n">
-        <v>11</v>
-      </c>
-      <c r="V41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W41" t="n">
-        <v>15</v>
-      </c>
-      <c r="X41" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>26</v>
-      </c>
       <c r="AF41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
         <v>41</v>
@@ -4283,16 +4459,16 @@
         <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6PwrBMZQ</t>
+          <t>O44vi1re</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4302,7 +4478,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4312,40 +4488,40 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J42" t="n">
         <v>1.04</v>
       </c>
       <c r="K42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P42" t="n">
         <v>1.33</v>
@@ -4354,25 +4530,25 @@
         <v>3.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
+        <v>8</v>
+      </c>
+      <c r="U42" t="n">
+        <v>9</v>
+      </c>
+      <c r="V42" t="n">
         <v>8.5</v>
       </c>
-      <c r="U42" t="n">
-        <v>11</v>
-      </c>
-      <c r="V42" t="n">
-        <v>9</v>
-      </c>
       <c r="W42" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="X42" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Y42" t="n">
         <v>23</v>
@@ -4384,37 +4560,37 @@
         <v>7</v>
       </c>
       <c r="AB42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
         <v>41</v>
       </c>
       <c r="AD42" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE42" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AG42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH42" t="n">
         <v>34</v>
       </c>
-      <c r="AH42" t="n">
-        <v>23</v>
-      </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>bPHhwdtf</t>
+          <t>AcpZCr5E</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4424,119 +4600,119 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="I43" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="J43" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K43" t="n">
-        <v>7.9</v>
+        <v>19</v>
       </c>
       <c r="L43" t="n">
-        <v>1.24</v>
+        <v>1.14</v>
       </c>
       <c r="M43" t="n">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="O43" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="P43" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.85</v>
+        <v>3.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="S43" t="n">
-        <v>2.18</v>
+        <v>2.63</v>
       </c>
       <c r="T43" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="U43" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="V43" t="n">
+        <v>9</v>
+      </c>
+      <c r="W43" t="n">
+        <v>19</v>
+      </c>
+      <c r="X43" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA43" t="n">
         <v>8</v>
       </c>
-      <c r="W43" t="n">
+      <c r="AB43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD43" t="n">
         <v>17</v>
       </c>
-      <c r="X43" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y43" t="n">
+      <c r="AE43" t="n">
         <v>21</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>24</v>
       </c>
       <c r="AF43" t="n">
         <v>13</v>
       </c>
       <c r="AG43" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AH43" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AI43" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AJ43" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6RxEpvlK</t>
+          <t>x8UD50cl</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4546,119 +4722,119 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>FC Tulsa</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="H44" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="I44" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J44" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="K44" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="L44" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="M44" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="O44" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="P44" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.55</v>
+        <v>3.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.78</v>
+        <v>1.53</v>
       </c>
       <c r="S44" t="n">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="T44" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
       </c>
       <c r="W44" t="n">
+        <v>15</v>
+      </c>
+      <c r="X44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y44" t="n">
         <v>19</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
         <v>17</v>
       </c>
-      <c r="Y44" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AA44" t="n">
-        <v>6.2</v>
+        <v>8</v>
       </c>
       <c r="AB44" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AD44" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE44" t="n">
-        <v>18.5</v>
+        <v>26</v>
       </c>
       <c r="AF44" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AG44" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AJ44" t="n">
-        <v>600</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>QBJpuIBs</t>
+          <t>6PwrBMZQ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4673,107 +4849,473 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>2.77</v>
+        <v>3.1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K45" t="n">
-        <v>7.3</v>
+        <v>12</v>
       </c>
       <c r="L45" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="M45" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N45" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="O45" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.67</v>
+        <v>3.25</v>
       </c>
       <c r="R45" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S45" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T45" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="U45" t="n">
         <v>11</v>
       </c>
       <c r="V45" t="n">
+        <v>9</v>
+      </c>
+      <c r="W45" t="n">
+        <v>21</v>
+      </c>
+      <c r="X45" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>bPHhwdtf</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Indy Eleven</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hartford Athletic</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K46" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O46" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="T46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U46" t="n">
+        <v>10</v>
+      </c>
+      <c r="V46" t="n">
+        <v>8</v>
+      </c>
+      <c r="W46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>6RxEpvlK</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>FC Tulsa</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T47" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U47" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W47" t="n">
+        <v>19</v>
+      </c>
+      <c r="X47" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>QBJpuIBs</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T48" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U48" t="n">
+        <v>11</v>
+      </c>
+      <c r="V48" t="n">
         <v>9.25</v>
       </c>
-      <c r="W45" t="n">
+      <c r="W48" t="n">
         <v>22</v>
       </c>
-      <c r="X45" t="n">
+      <c r="X48" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="Y48" t="n">
         <v>29</v>
       </c>
-      <c r="Z45" t="n">
+      <c r="Z48" t="n">
         <v>7.3</v>
       </c>
-      <c r="AA45" t="n">
+      <c r="AA48" t="n">
         <v>6.6</v>
       </c>
-      <c r="AB45" t="n">
+      <c r="AB48" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC45" t="n">
+      <c r="AC48" t="n">
         <v>65</v>
       </c>
-      <c r="AD45" t="n">
+      <c r="AD48" t="n">
         <v>9</v>
       </c>
-      <c r="AE45" t="n">
+      <c r="AE48" t="n">
         <v>14</v>
       </c>
-      <c r="AF45" t="n">
+      <c r="AF48" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG45" t="n">
+      <c r="AG48" t="n">
         <v>32</v>
       </c>
-      <c r="AH45" t="n">
+      <c r="AH48" t="n">
         <v>24</v>
       </c>
-      <c r="AI45" t="n">
+      <c r="AI48" t="n">
         <v>32</v>
       </c>
-      <c r="AJ45" t="n">
+      <c r="AJ48" t="n">
         <v>500</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.62</v>
@@ -674,61 +674,61 @@
         <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
         <v>11</v>
       </c>
-      <c r="V2" t="n">
-        <v>12</v>
-      </c>
       <c r="W2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>81</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
@@ -912,10 +912,10 @@
         <v>2.63</v>
       </c>
       <c r="N5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
         <v>1.53</v>
@@ -924,13 +924,13 @@
         <v>2.38</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U5" t="n">
         <v>11</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X5" t="n">
         <v>23</v>
@@ -966,13 +966,13 @@
         <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG5" t="n">
         <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="H10" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1395,7 +1395,7 @@
         <v>1.22</v>
       </c>
       <c r="M10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="N10" t="n">
         <v>1.65</v>
@@ -1404,34 +1404,34 @@
         <v>2.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="S10" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="T10" t="n">
         <v>6.4</v>
       </c>
       <c r="U10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="V10" t="n">
         <v>9.5</v>
       </c>
       <c r="W10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
         <v>8.25</v>
@@ -1446,19 +1446,19 @@
         <v>200</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AF10" t="n">
         <v>45</v>
       </c>
       <c r="AG10" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AH10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI10" t="n">
         <v>175</v>
@@ -1497,91 +1497,91 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J11" t="n">
         <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="N11" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="T11" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="U11" t="n">
         <v>6.3</v>
       </c>
       <c r="V11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AA11" t="n">
         <v>7</v>
       </c>
       <c r="AB11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD11" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
         <v>19</v>
       </c>
       <c r="AG11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AH11" t="n">
         <v>75</v>
       </c>
       <c r="AI11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
     </row>
@@ -1739,88 +1739,88 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J13" t="n">
         <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="N13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.65</v>
       </c>
       <c r="P13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="U13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V13" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W13" t="n">
         <v>55</v>
       </c>
       <c r="X13" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>10.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG13" t="n">
         <v>24</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -1860,36 +1860,80 @@
           <t>Paide</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.72</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2.15</v>
+      </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U14" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1922,36 +1966,80 @@
           <t>Parnu JK Vaprus</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2.07</v>
+      </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U15" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>200</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2171,13 +2259,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2249,7 +2337,7 @@
         <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -2264,7 +2352,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>h86rkCXA</t>
+          <t>YmLRlrMU</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2284,12 +2372,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Harkemase Boys</t>
+          <t>Blauw Geel</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Meerssen</t>
+          <t>Noordwijk</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -2326,7 +2414,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tS7JjP8F</t>
+          <t>h86rkCXA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2346,12 +2434,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VV DOVO</t>
+          <t>Meerssen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kozakken Boys</t>
+          <t>Harkemase Boys</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -2388,7 +2476,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>YmLRlrMU</t>
+          <t>48TAhQM5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2408,12 +2496,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Noordwijk</t>
+          <t>Sportlust</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Blauw Geel</t>
+          <t>Scheveningen</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -2450,7 +2538,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>48TAhQM5</t>
+          <t>tS7JjP8F</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2470,12 +2558,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sportlust</t>
+          <t>VV DOVO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Scheveningen</t>
+          <t>Kozakken Boys</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -2541,13 +2629,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H24" t="n">
         <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
@@ -2580,10 +2668,10 @@
         <v>1.95</v>
       </c>
       <c r="T24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
         <v>11</v>
@@ -2610,13 +2698,13 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
         <v>23</v>
@@ -3045,7 +3133,7 @@
         <v>1.08</v>
       </c>
       <c r="K30" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L30" t="n">
         <v>1.4</v>
@@ -3066,10 +3154,10 @@
         <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -3405,7 +3493,7 @@
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
@@ -3438,7 +3526,7 @@
         <v>2.38</v>
       </c>
       <c r="T33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U33" t="n">
         <v>15</v>
@@ -3524,28 +3612,28 @@
         <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I34" t="n">
         <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L34" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N34" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="O34" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="P34" t="n">
         <v>1.33</v>
@@ -3554,13 +3642,13 @@
         <v>3.25</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U34" t="n">
         <v>12</v>
@@ -3569,7 +3657,7 @@
         <v>9.5</v>
       </c>
       <c r="W34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X34" t="n">
         <v>17</v>
@@ -3578,7 +3666,7 @@
         <v>23</v>
       </c>
       <c r="Z34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA34" t="n">
         <v>6.5</v>
@@ -3602,10 +3690,10 @@
         <v>29</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
         <v>151</v>
@@ -3646,7 +3734,7 @@
         <v>1.65</v>
       </c>
       <c r="H35" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -3658,31 +3746,31 @@
         <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="O35" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="P35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U35" t="n">
         <v>8.5</v>
@@ -3694,10 +3782,10 @@
         <v>13</v>
       </c>
       <c r="X35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z35" t="n">
         <v>13</v>
@@ -3712,7 +3800,7 @@
         <v>41</v>
       </c>
       <c r="AD35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE35" t="n">
         <v>26</v>
@@ -3724,13 +3812,13 @@
         <v>51</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
         <v>41</v>
       </c>
       <c r="AJ35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36">
@@ -3804,7 +3892,7 @@
         <v>2.1</v>
       </c>
       <c r="T36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U36" t="n">
         <v>8.5</v>
@@ -3822,7 +3910,7 @@
         <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA36" t="n">
         <v>10</v>
@@ -3887,7 +3975,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
@@ -3896,13 +3984,13 @@
         <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K37" t="n">
         <v>11</v>
       </c>
       <c r="L37" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M37" t="n">
         <v>3.75</v>
@@ -3959,7 +4047,7 @@
         <v>12</v>
       </c>
       <c r="AE37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF37" t="n">
         <v>13</v>
@@ -4009,31 +4097,31 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
         <v>11</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O38" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -4075,16 +4163,16 @@
         <v>15</v>
       </c>
       <c r="AC38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG38" t="n">
         <v>41</v>
@@ -4131,19 +4219,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
         <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" t="n">
         <v>1.22</v>
@@ -4173,13 +4261,13 @@
         <v>11</v>
       </c>
       <c r="U39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V39" t="n">
         <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X39" t="n">
         <v>23</v>
@@ -4206,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG39" t="n">
         <v>21</v>
@@ -4256,73 +4344,73 @@
         <v>1.73</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
         <v>4.5</v>
       </c>
       <c r="J40" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L40" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N40" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O40" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R40" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T40" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U40" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V40" t="n">
         <v>8.5</v>
       </c>
       <c r="W40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X40" t="n">
         <v>13</v>
       </c>
       <c r="Y40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA40" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC40" t="n">
         <v>41</v>
       </c>
       <c r="AD40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE40" t="n">
         <v>23</v>
@@ -4337,10 +4425,10 @@
         <v>34</v>
       </c>
       <c r="AI40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ40" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41">
@@ -4375,31 +4463,31 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>3.4</v>
       </c>
       <c r="I41" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L41" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
         <v>3.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O41" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P41" t="n">
         <v>1.36</v>
@@ -4420,13 +4508,13 @@
         <v>9.5</v>
       </c>
       <c r="V41" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W41" t="n">
         <v>17</v>
       </c>
       <c r="X41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
         <v>26</v>
@@ -4444,10 +4532,10 @@
         <v>51</v>
       </c>
       <c r="AD41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF41" t="n">
         <v>13</v>
@@ -4456,10 +4544,10 @@
         <v>41</v>
       </c>
       <c r="AH41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="n">
         <v>201</v>
@@ -4518,10 +4606,10 @@
         <v>4</v>
       </c>
       <c r="N42" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O42" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P42" t="n">
         <v>1.33</v>
@@ -4530,10 +4618,10 @@
         <v>3.25</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T42" t="n">
         <v>8</v>
@@ -4640,10 +4728,10 @@
         <v>5.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O43" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P43" t="n">
         <v>1.25</v>
@@ -4762,10 +4850,10 @@
         <v>5.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O44" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="P44" t="n">
         <v>1.25</v>
@@ -4774,16 +4862,16 @@
         <v>3.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T44" t="n">
         <v>11</v>
       </c>
       <c r="U44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V44" t="n">
         <v>8.5</v>
@@ -4798,7 +4886,7 @@
         <v>19</v>
       </c>
       <c r="Z44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
         <v>8</v>
@@ -4819,7 +4907,7 @@
         <v>15</v>
       </c>
       <c r="AG44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH44" t="n">
         <v>29</v>
@@ -4863,13 +4951,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>3.5</v>
       </c>
       <c r="I45" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J45" t="n">
         <v>1.04</v>
@@ -4911,7 +4999,7 @@
         <v>9</v>
       </c>
       <c r="W45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X45" t="n">
         <v>17</v>
@@ -4938,7 +5026,7 @@
         <v>17</v>
       </c>
       <c r="AF45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
         <v>34</v>
@@ -4985,22 +5073,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
-        <v>3.35</v>
+        <v>3.8</v>
       </c>
       <c r="I46" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K46" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="L46" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M46" t="n">
         <v>3.7</v>
@@ -5009,70 +5097,70 @@
         <v>1.7</v>
       </c>
       <c r="O46" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P46" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="R46" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S46" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="T46" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="U46" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="V46" t="n">
         <v>8</v>
       </c>
       <c r="W46" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="X46" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y46" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z46" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA46" t="n">
-        <v>6.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB46" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AD46" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AF46" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG46" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AH46" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
     </row>
     <row r="47">
@@ -5107,94 +5195,94 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="H47" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="J47" t="n">
         <v>1.07</v>
       </c>
       <c r="K47" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="L47" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M47" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O47" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P47" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R47" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="S47" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T47" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="U47" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="V47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X47" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z47" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA47" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB47" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC47" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD47" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AE47" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF47" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AG47" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="AH47" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI47" t="n">
         <v>37</v>
       </c>
       <c r="AJ47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48">
@@ -5229,94 +5317,94 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="H48" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I48" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="J48" t="n">
         <v>1.06</v>
       </c>
       <c r="K48" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M48" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="O48" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P48" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="R48" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S48" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T48" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="U48" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="V48" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W48" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="X48" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="Y48" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB48" t="n">
         <v>14.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD48" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AE48" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG48" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AH48" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI48" t="n">
         <v>32</v>
       </c>
       <c r="AJ48" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,22 +1497,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H11" t="n">
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K11" t="n">
         <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>2.57</v>
@@ -1539,13 +1539,13 @@
         <v>5</v>
       </c>
       <c r="U11" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="V11" t="n">
         <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="X11" t="n">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="AA11" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
@@ -1566,19 +1566,19 @@
         <v>150</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG11" t="n">
         <v>120</v>
       </c>
       <c r="AH11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="n">
         <v>90</v>
@@ -2629,31 +2629,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -2662,16 +2662,16 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
         <v>8.5</v>
       </c>
       <c r="U24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V24" t="n">
         <v>11</v>
@@ -2680,13 +2680,13 @@
         <v>29</v>
       </c>
       <c r="X24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y24" t="n">
         <v>34</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA24" t="n">
         <v>6</v>
@@ -2698,13 +2698,13 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AG24" t="n">
         <v>23</v>
@@ -2713,10 +2713,10 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25">
@@ -3154,10 +3154,10 @@
         <v>2.5</v>
       </c>
       <c r="R30" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T30" t="n">
         <v>7</v>
@@ -3458,7 +3458,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>W6PabqjL</t>
+          <t>zarJHSPi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3468,119 +3468,59 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>SPAIN - PRIMERA RFEF</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Atlanta Utd</t>
+          <t>Cultural Leonesa</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K33" t="n">
-        <v>15</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="O33" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T33" t="n">
-        <v>12</v>
-      </c>
-      <c r="U33" t="n">
-        <v>15</v>
-      </c>
-      <c r="V33" t="n">
-        <v>10</v>
-      </c>
-      <c r="W33" t="n">
-        <v>26</v>
-      </c>
-      <c r="X33" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>126</v>
-      </c>
+          <t>Ceuta</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>bm2Dx2T1</t>
+          <t>W6PabqjL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3600,109 +3540,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>New England Revolution</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.9</v>
+        <v>1.62</v>
       </c>
       <c r="O34" t="n">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="U34" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="V34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W34" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
         <v>23</v>
       </c>
       <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD34" t="n">
         <v>12</v>
       </c>
-      <c r="AA34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>11</v>
-      </c>
       <c r="AE34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI34" t="n">
         <v>23</v>
       </c>
-      <c r="AI34" t="n">
-        <v>29</v>
-      </c>
       <c r="AJ34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OtMi05L8</t>
+          <t>bm2Dx2T1</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3722,100 +3662,100 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>FC Dallas</t>
+          <t>New England Revolution</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J35" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L35" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="M35" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="O35" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="P35" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U35" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="V35" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="X35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z35" t="n">
         <v>12</v>
       </c>
-      <c r="Y35" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>13</v>
-      </c>
       <c r="AA35" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
         <v>41</v>
       </c>
       <c r="AD35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE35" t="n">
         <v>17</v>
       </c>
-      <c r="AE35" t="n">
-        <v>26</v>
-      </c>
       <c r="AF35" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AG35" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AI35" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ35" t="n">
         <v>151</v>
@@ -3824,7 +3764,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>QZ35vObk</t>
+          <t>OtMi05L8</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3844,55 +3784,55 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inter Miami</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>FC Dallas</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I36" t="n">
         <v>5</v>
       </c>
-      <c r="I36" t="n">
-        <v>5.75</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="L36" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="M36" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="N36" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="O36" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="P36" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S36" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T36" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="U36" t="n">
         <v>8.5</v>
@@ -3901,40 +3841,40 @@
         <v>8.5</v>
       </c>
       <c r="W36" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y36" t="n">
         <v>21</v>
       </c>
       <c r="Z36" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
         <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH36" t="n">
         <v>34</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>41</v>
       </c>
       <c r="AI36" t="n">
         <v>41</v>
@@ -3946,7 +3886,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bPJQo66F</t>
+          <t>QZ35vObk</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -3966,109 +3906,109 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>New York City</t>
+          <t>Inter Miami</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Houston Dynamo</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="K37" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L37" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="P37" t="n">
         <v>1.25</v>
       </c>
-      <c r="M37" t="n">
+      <c r="Q37" t="n">
         <v>3.75</v>
       </c>
-      <c r="N37" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
       <c r="R37" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T37" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="U37" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="V37" t="n">
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
+        <v>11</v>
+      </c>
+      <c r="X37" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB37" t="n">
         <v>17</v>
-      </c>
-      <c r="X37" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>15</v>
       </c>
       <c r="AC37" t="n">
         <v>41</v>
       </c>
       <c r="AD37" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE37" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AF37" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG37" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH37" t="n">
         <v>41</v>
       </c>
-      <c r="AH37" t="n">
-        <v>29</v>
-      </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6kNYqpyS</t>
+          <t>bPJQo66F</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4088,22 +4028,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>New York Red Bulls</t>
+          <t>New York City</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Houston Dynamo</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H38" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="J38" t="n">
         <v>1.05</v>
@@ -4118,10 +4058,10 @@
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.77</v>
+        <v>1.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -4136,16 +4076,16 @@
         <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X38" t="n">
         <v>15</v>
@@ -4166,22 +4106,22 @@
         <v>41</v>
       </c>
       <c r="AD38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF38" t="n">
         <v>13</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>15</v>
       </c>
       <c r="AG38" t="n">
         <v>41</v>
       </c>
       <c r="AH38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI38" t="n">
         <v>34</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>41</v>
       </c>
       <c r="AJ38" t="n">
         <v>201</v>
@@ -4190,7 +4130,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>xAVHmSy3</t>
+          <t>6kNYqpyS</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4210,22 +4150,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Toronto FC</t>
+          <t>New York Red Bulls</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="J39" t="n">
         <v>1.04</v>
@@ -4240,10 +4180,10 @@
         <v>4</v>
       </c>
       <c r="N39" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="P39" t="n">
         <v>1.33</v>
@@ -4252,67 +4192,67 @@
         <v>3.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S39" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T39" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="U39" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="V39" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="W39" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="X39" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y39" t="n">
         <v>23</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>29</v>
       </c>
       <c r="Z39" t="n">
         <v>12</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB39" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
         <v>41</v>
       </c>
       <c r="AD39" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AF39" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AG39" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AH39" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gv1WhNDr</t>
+          <t>xAVHmSy3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4322,7 +4262,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4332,100 +4272,100 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Toronto FC</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Nashville SC</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.73</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="J40" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M40" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O40" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
         <v>1.3</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T40" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="U40" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="V40" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="X40" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y40" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
         <v>41</v>
       </c>
       <c r="AD40" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI40" t="n">
         <v>23</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>34</v>
       </c>
       <c r="AJ40" t="n">
         <v>151</v>
@@ -4434,7 +4374,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I3cmkuD7</t>
+          <t>Gv1WhNDr</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4444,7 +4384,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4454,109 +4394,109 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Real Salt Lake</t>
+          <t>Nashville SC</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="H41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K41" t="n">
+        <v>15</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q41" t="n">
         <v>3.4</v>
       </c>
-      <c r="I41" t="n">
-        <v>4</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3</v>
-      </c>
       <c r="R41" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T41" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="U41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V41" t="n">
         <v>8.5</v>
       </c>
       <c r="W41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X41" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD41" t="n">
         <v>15</v>
       </c>
-      <c r="Y41" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB41" t="n">
+      <c r="AE41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF41" t="n">
         <v>15</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AG41" t="n">
         <v>51</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>41</v>
       </c>
       <c r="AH41" t="n">
         <v>34</v>
       </c>
       <c r="AI41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>O44vi1re</t>
+          <t>I3cmkuD7</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4576,94 +4516,94 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>San Diego FC</t>
+          <t>Real Salt Lake</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K42" t="n">
+        <v>11</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
         <v>1.75</v>
       </c>
-      <c r="H42" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K42" t="n">
-        <v>13</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O42" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R42" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S42" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
       </c>
       <c r="W42" t="n">
+        <v>17</v>
+      </c>
+      <c r="X42" t="n">
         <v>15</v>
       </c>
-      <c r="X42" t="n">
-        <v>13</v>
-      </c>
       <c r="Y42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA42" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB42" t="n">
         <v>15</v>
       </c>
       <c r="AC42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG42" t="n">
         <v>41</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>51</v>
       </c>
       <c r="AH42" t="n">
         <v>34</v>
@@ -4678,7 +4618,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AcpZCr5E</t>
+          <t>O44vi1re</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4688,7 +4628,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -4698,109 +4638,109 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>San Jose Earthquakes</t>
+          <t>San Diego FC</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="K43" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L43" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="M43" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="O43" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="P43" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
-        <v>2.63</v>
+        <v>2.05</v>
       </c>
       <c r="T43" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U43" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W43" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="X43" t="n">
         <v>13</v>
       </c>
       <c r="Y43" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="Z43" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AA43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB43" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AC43" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI43" t="n">
         <v>41</v>
       </c>
-      <c r="AH43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>26</v>
-      </c>
       <c r="AJ43" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>x8UD50cl</t>
+          <t>AcpZCr5E</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4810,7 +4750,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -4820,28 +4760,28 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Portland Timbers</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>San Jose Earthquakes</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="J44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K44" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L44" t="n">
         <v>1.14</v>
@@ -4850,10 +4790,10 @@
         <v>5.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="O44" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="P44" t="n">
         <v>1.25</v>
@@ -4862,58 +4802,58 @@
         <v>3.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W44" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y44" t="n">
         <v>19</v>
       </c>
       <c r="Z44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA44" t="n">
         <v>8</v>
       </c>
       <c r="AB44" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF44" t="n">
         <v>12</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>15</v>
       </c>
       <c r="AG44" t="n">
         <v>41</v>
       </c>
       <c r="AH44" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI44" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ44" t="n">
         <v>101</v>
@@ -4922,7 +4862,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6PwrBMZQ</t>
+          <t>x8UD50cl</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4942,109 +4882,109 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Vancouver Whitecaps</t>
+          <t>Portland Timbers</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Minnesota United</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I45" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="K45" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="L45" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="P45" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R45" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S45" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="T45" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U45" t="n">
         <v>11</v>
       </c>
       <c r="V45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W45" t="n">
+        <v>15</v>
+      </c>
+      <c r="X45" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y45" t="n">
         <v>19</v>
       </c>
-      <c r="X45" t="n">
+      <c r="Z45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD45" t="n">
         <v>17</v>
       </c>
-      <c r="Y45" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC45" t="n">
+      <c r="AE45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG45" t="n">
         <v>41</v>
       </c>
-      <c r="AD45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>34</v>
-      </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AI45" t="n">
         <v>29</v>
       </c>
       <c r="AJ45" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bPHhwdtf</t>
+          <t>6PwrBMZQ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5054,119 +4994,119 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Indy Eleven</t>
+          <t>Vancouver Whitecaps</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Hartford Athletic</t>
+          <t>Minnesota United</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="J46" t="n">
         <v>1.04</v>
       </c>
       <c r="K46" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="L46" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="O46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="R46" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S46" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T46" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="U46" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="V46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W46" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="X46" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Y46" t="n">
         <v>23</v>
       </c>
       <c r="Z46" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="AA46" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AB46" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AC46" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AD46" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AF46" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AG46" t="n">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="AH46" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AI46" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6RxEpvlK</t>
+          <t>bPHhwdtf</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5176,7 +5116,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -5186,109 +5126,109 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Indy Eleven</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>FC Tulsa</t>
+          <t>Hartford Athletic</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I47" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q47" t="n">
         <v>2.95</v>
       </c>
-      <c r="J47" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P47" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.57</v>
-      </c>
       <c r="R47" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="S47" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="T47" t="n">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="U47" t="n">
-        <v>10.25</v>
+        <v>8</v>
       </c>
       <c r="V47" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W47" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="X47" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="Y47" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE47" t="n">
         <v>30</v>
       </c>
-      <c r="Z47" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>15</v>
-      </c>
       <c r="AF47" t="n">
-        <v>10.75</v>
+        <v>15.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="AH47" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AJ47" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>QBJpuIBs</t>
+          <t>6RxEpvlK</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5298,7 +5238,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -5308,103 +5248,225 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>FC Tulsa</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="H48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="J48" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="M48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P48" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.77</v>
+        <v>2.6</v>
       </c>
       <c r="R48" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T48" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="U48" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="V48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W48" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="X48" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AB48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD48" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE48" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG48" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AH48" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AI48" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AJ48" t="n">
         <v>600</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>QBJpuIBs</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>28/05/2025</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>USA - USL CHAMPIONSHIP</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Las Vegas Lights</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Phoenix Rising</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T49" t="n">
+        <v>8</v>
+      </c>
+      <c r="U49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W49" t="n">
+        <v>24</v>
+      </c>
+      <c r="X49" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -1010,93 +1010,35 @@
           <t>Chrudim</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="I6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="T6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="U6" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="V6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9</v>
-      </c>
-      <c r="X6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>200</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>120</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1131,13 +1073,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.45</v>
+        <v>4.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
         <v>1.07</v>
@@ -1617,94 +1559,94 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.78</v>
       </c>
-      <c r="J12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="T12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="U12" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="V12" t="n">
+        <v>13</v>
+      </c>
+      <c r="W12" t="n">
+        <v>65</v>
+      </c>
+      <c r="X12" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB12" t="n">
         <v>14.5</v>
       </c>
-      <c r="W12" t="n">
-        <v>75</v>
-      </c>
-      <c r="X12" t="n">
-        <v>45</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>15</v>
-      </c>
       <c r="AC12" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
@@ -1861,39 +1803,39 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="U14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V14" t="n">
         <v>7.7</v>
       </c>
       <c r="W14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
         <v>13.5</v>
@@ -1902,7 +1844,7 @@
         <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA14" t="n">
         <v>6.2</v>
@@ -1914,7 +1856,7 @@
         <v>30</v>
       </c>
       <c r="AD14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>14</v>
@@ -1929,7 +1871,7 @@
         <v>16.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>150</v>
@@ -2072,36 +2014,84 @@
           <t>Dinamo Tbilisi</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.3</v>
+      </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="V16" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2292,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S19" t="n">
         <v>2</v>
@@ -3276,10 +3266,10 @@
         <v>2.63</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T31" t="n">
         <v>8</v>
@@ -3398,10 +3388,10 @@
         <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S32" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T32" t="n">
         <v>8.5</v>
@@ -3549,13 +3539,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J34" t="n">
         <v>1.03</v>
@@ -3704,7 +3694,7 @@
         <v>3.25</v>
       </c>
       <c r="R35" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S35" t="n">
         <v>2.1</v>
@@ -3948,7 +3938,7 @@
         <v>3.75</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S37" t="n">
         <v>2.1</v>
@@ -4070,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S38" t="n">
         <v>2</v>
@@ -4198,7 +4188,7 @@
         <v>2.05</v>
       </c>
       <c r="T39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U39" t="n">
         <v>9</v>
@@ -4216,13 +4206,13 @@
         <v>23</v>
       </c>
       <c r="Z39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA39" t="n">
         <v>7</v>
       </c>
       <c r="AB39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC39" t="n">
         <v>41</v>
@@ -4243,10 +4233,10 @@
         <v>34</v>
       </c>
       <c r="AI39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40">
@@ -4287,19 +4277,19 @@
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J40" t="n">
         <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M40" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N40" t="n">
         <v>1.8</v>
@@ -4308,28 +4298,28 @@
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q40" t="n">
         <v>3.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S40" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
       </c>
       <c r="U40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V40" t="n">
         <v>11</v>
       </c>
       <c r="W40" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X40" t="n">
         <v>23</v>
@@ -4344,19 +4334,19 @@
         <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC40" t="n">
         <v>41</v>
       </c>
       <c r="AD40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE40" t="n">
         <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG40" t="n">
         <v>21</v>
@@ -4403,7 +4393,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H41" t="n">
         <v>3.8</v>
@@ -4424,7 +4414,7 @@
         <v>4.33</v>
       </c>
       <c r="N41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O41" t="n">
         <v>2.2</v>
@@ -4558,7 +4548,7 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S42" t="n">
         <v>2</v>
@@ -4680,7 +4670,7 @@
         <v>3.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="n">
         <v>2.05</v>
@@ -4769,7 +4759,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
@@ -4781,7 +4771,7 @@
         <v>1.02</v>
       </c>
       <c r="K44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L44" t="n">
         <v>1.14</v>
@@ -4790,7 +4780,7 @@
         <v>5.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O44" t="n">
         <v>2.6</v>
@@ -4802,10 +4792,10 @@
         <v>3.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T44" t="n">
         <v>12</v>
@@ -4900,10 +4890,10 @@
         <v>4.1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L45" t="n">
         <v>1.14</v>
@@ -4912,10 +4902,10 @@
         <v>5.5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O45" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="P45" t="n">
         <v>1.25</v>
@@ -5013,19 +5003,19 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K46" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L46" t="n">
         <v>1.25</v>
@@ -5034,46 +5024,46 @@
         <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="P46" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S46" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V46" t="n">
         <v>9</v>
       </c>
       <c r="W46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X46" t="n">
         <v>17</v>
       </c>
       <c r="Y46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA46" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB46" t="n">
         <v>13</v>
@@ -5082,13 +5072,13 @@
         <v>41</v>
       </c>
       <c r="AD46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF46" t="n">
         <v>11</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>12</v>
       </c>
       <c r="AG46" t="n">
         <v>34</v>
@@ -5100,7 +5090,7 @@
         <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47">

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -900,10 +900,10 @@
         <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
         <v>1.44</v>
@@ -939,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X5" t="n">
         <v>23</v>
@@ -948,7 +948,7 @@
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA5" t="n">
         <v>6</v>
@@ -1010,36 +1010,96 @@
           <t>Chrudim</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>501</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1073,82 +1133,82 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="P7" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="R7" t="n">
         <v>1.83</v>
       </c>
       <c r="S7" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T7" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="U7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="V7" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="X7" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Y7" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG7" t="n">
         <v>15</v>
@@ -1160,7 +1220,7 @@
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>700</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
@@ -1681,25 +1741,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I13" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J13" t="n">
         <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.37</v>
       </c>
       <c r="M13" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="N13" t="n">
         <v>2.1</v>
@@ -1708,16 +1768,16 @@
         <v>1.65</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R13" t="n">
         <v>1.75</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
         <v>9.75</v>
@@ -1738,10 +1798,10 @@
         <v>37</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -1750,19 +1810,19 @@
         <v>60</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AE13" t="n">
         <v>10.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG13" t="n">
         <v>24</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -1803,13 +1863,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1819,35 +1879,35 @@
         <v>1.57</v>
       </c>
       <c r="O14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U14" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V14" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
         <v>13.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB14" t="n">
         <v>9.75</v>
@@ -1868,10 +1928,10 @@
         <v>27</v>
       </c>
       <c r="AH14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>150</v>
@@ -2015,13 +2075,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2042,19 +2102,19 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="U16" t="n">
-        <v>6.7</v>
+        <v>7.5</v>
       </c>
       <c r="V16" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
         <v>24</v>
@@ -2063,34 +2123,34 @@
         <v>8.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AE16" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG16" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
         <v>32</v>
       </c>
-      <c r="AI16" t="n">
-        <v>37</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17">
@@ -2124,36 +2184,96 @@
           <t>Audace Cerignola</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K17" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T17" t="n">
+        <v>8</v>
+      </c>
+      <c r="U17" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W17" t="n">
+        <v>20</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>400</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2186,36 +2306,96 @@
           <t>L.R. Vicenza</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T18" t="n">
+        <v>7</v>
+      </c>
+      <c r="U18" t="n">
+        <v>12</v>
+      </c>
+      <c r="V18" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W18" t="n">
+        <v>30</v>
+      </c>
+      <c r="X18" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2282,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S19" t="n">
         <v>2</v>
@@ -2619,13 +2799,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
@@ -2640,10 +2820,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -2661,7 +2841,7 @@
         <v>8.5</v>
       </c>
       <c r="U24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V24" t="n">
         <v>11</v>
@@ -2694,7 +2874,7 @@
         <v>11</v>
       </c>
       <c r="AF24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG24" t="n">
         <v>23</v>
@@ -3138,7 +3318,7 @@
         <v>1.6</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q30" t="n">
         <v>2.5</v>
@@ -3266,10 +3446,10 @@
         <v>2.63</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T31" t="n">
         <v>8</v>
@@ -3364,10 +3544,10 @@
         <v>2.2</v>
       </c>
       <c r="J32" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L32" t="n">
         <v>1.4</v>
@@ -3376,10 +3556,10 @@
         <v>2.75</v>
       </c>
       <c r="N32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="O32" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P32" t="n">
         <v>1.5</v>
@@ -3388,10 +3568,10 @@
         <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S32" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T32" t="n">
         <v>8.5</v>
@@ -3539,13 +3719,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J34" t="n">
         <v>1.03</v>
@@ -3682,10 +3862,10 @@
         <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P35" t="n">
         <v>1.33</v>
@@ -3694,7 +3874,7 @@
         <v>3.25</v>
       </c>
       <c r="R35" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S35" t="n">
         <v>2.1</v>
@@ -3783,19 +3963,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H36" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L36" t="n">
         <v>1.2</v>
@@ -3816,16 +3996,16 @@
         <v>3.4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T36" t="n">
         <v>8.5</v>
       </c>
       <c r="U36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V36" t="n">
         <v>8.5</v>
@@ -3834,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="X36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y36" t="n">
         <v>21</v>
@@ -3846,13 +4026,13 @@
         <v>7.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
         <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE36" t="n">
         <v>26</v>
@@ -3867,7 +4047,7 @@
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ36" t="n">
         <v>151</v>
@@ -3938,7 +4118,7 @@
         <v>3.75</v>
       </c>
       <c r="R37" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
         <v>2.1</v>
@@ -4060,16 +4240,16 @@
         <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
         <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V38" t="n">
         <v>8.5</v>
@@ -4283,7 +4463,7 @@
         <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
         <v>1.25</v>
@@ -4393,13 +4573,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -4408,13 +4588,13 @@
         <v>15</v>
       </c>
       <c r="L41" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O41" t="n">
         <v>2.2</v>
@@ -4426,16 +4606,16 @@
         <v>3.4</v>
       </c>
       <c r="R41" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S41" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V41" t="n">
         <v>8.5</v>
@@ -4450,7 +4630,7 @@
         <v>21</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA41" t="n">
         <v>7.5</v>
@@ -4468,13 +4648,13 @@
         <v>23</v>
       </c>
       <c r="AF41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI41" t="n">
         <v>34</v>
@@ -4542,13 +4722,13 @@
         <v>1.88</v>
       </c>
       <c r="P42" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q42" t="n">
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
         <v>2</v>
@@ -4643,7 +4823,7 @@
         <v>3.7</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
         <v>1.04</v>
@@ -4670,7 +4850,7 @@
         <v>3.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S43" t="n">
         <v>2.05</v>
@@ -4694,19 +4874,19 @@
         <v>23</v>
       </c>
       <c r="Z43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA43" t="n">
         <v>7</v>
       </c>
       <c r="AB43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC43" t="n">
         <v>41</v>
       </c>
       <c r="AD43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE43" t="n">
         <v>23</v>
@@ -4721,10 +4901,10 @@
         <v>34</v>
       </c>
       <c r="AI43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ43" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44">
@@ -4759,7 +4939,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
@@ -4780,22 +4960,22 @@
         <v>5.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O44" t="n">
         <v>2.6</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q44" t="n">
         <v>3.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T44" t="n">
         <v>12</v>
@@ -4908,7 +5088,7 @@
         <v>2.4</v>
       </c>
       <c r="P45" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q45" t="n">
         <v>3.75</v>
@@ -5003,7 +5183,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H46" t="n">
         <v>3.4</v>
@@ -5024,10 +5204,10 @@
         <v>3.75</v>
       </c>
       <c r="N46" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O46" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P46" t="n">
         <v>1.36</v>
@@ -5036,7 +5216,7 @@
         <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S46" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -656,10 +656,10 @@
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
         <v>1.62</v>
@@ -704,10 +704,10 @@
         <v>41</v>
       </c>
       <c r="Z2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6</v>
       </c>
       <c r="AB2" t="n">
         <v>21</v>
@@ -766,35 +766,89 @@
           <t>Huila</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4.55</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>90</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>80</v>
+      </c>
       <c r="AJ3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -828,36 +882,92 @@
           <t>Cucuta</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.85</v>
+      </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>25</v>
+      </c>
+      <c r="X4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -900,16 +1010,16 @@
         <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N5" t="n">
         <v>2.5</v>
@@ -1011,19 +1121,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1044,10 +1154,10 @@
         <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1059,19 +1169,19 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
         <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1080,19 +1190,19 @@
         <v>81</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>67</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
@@ -1133,13 +1243,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J7" t="n">
         <v>1.06</v>
@@ -1154,10 +1264,10 @@
         <v>3.4</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P7" t="n">
         <v>1.4</v>
@@ -1196,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
         <v>51</v>
@@ -1217,10 +1327,10 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
@@ -1254,35 +1364,89 @@
           <t>Vargas Torres</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.05</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>70</v>
+      </c>
       <c r="AJ8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1316,35 +1480,89 @@
           <t>Nueve de Octubre</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.1</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>65</v>
+      </c>
       <c r="AJ9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1379,25 +1597,25 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="H10" t="n">
         <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.22</v>
       </c>
       <c r="M10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N10" t="n">
         <v>1.65</v>
@@ -1433,37 +1651,37 @@
         <v>11.75</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
         <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
         <v>200</v>
       </c>
       <c r="AI10" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
     </row>
@@ -1502,85 +1720,85 @@
         <v>1.6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J11" t="n">
         <v>1.09</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M11" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2.57</v>
       </c>
-      <c r="N11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.5</v>
-      </c>
       <c r="R11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S11" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="U11" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="V11" t="n">
         <v>8.75</v>
       </c>
       <c r="W11" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="X11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
         <v>40</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC11" t="n">
         <v>150</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE11" t="n">
         <v>32</v>
       </c>
       <c r="AF11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AG11" t="n">
         <v>120</v>
       </c>
       <c r="AH11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="n">
         <v>90</v>
@@ -1744,43 +1962,43 @@
         <v>3.55</v>
       </c>
       <c r="H13" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="I13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="J13" t="n">
         <v>1.09</v>
       </c>
       <c r="K13" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="N13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="P13" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="R13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S13" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
         <v>20</v>
@@ -1795,13 +2013,13 @@
         <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -1810,25 +2028,25 @@
         <v>60</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="AE13" t="n">
         <v>10.75</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14">
@@ -1863,13 +2081,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -1886,16 +2104,16 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U14" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V14" t="n">
         <v>7.6</v>
       </c>
       <c r="W14" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="X14" t="n">
         <v>13</v>
@@ -1904,22 +2122,22 @@
         <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA14" t="n">
         <v>6.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC14" t="n">
         <v>30</v>
       </c>
       <c r="AD14" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF14" t="n">
         <v>8.75</v>
@@ -1928,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
         <v>19.5</v>
@@ -1969,51 +2187,51 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I15" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O15" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="U15" t="n">
         <v>4.85</v>
       </c>
       <c r="V15" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="W15" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X15" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z15" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
         <v>23</v>
@@ -2022,10 +2240,10 @@
         <v>110</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
         <v>37</v>
@@ -2081,7 +2299,7 @@
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2120,7 +2338,7 @@
         <v>24</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
         <v>5.3</v>
@@ -2185,94 +2403,94 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="M17" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="N17" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="O17" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S17" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T17" t="n">
-        <v>8</v>
+        <v>6.7</v>
       </c>
       <c r="U17" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="V17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AD17" t="n">
         <v>10.25</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
@@ -2307,91 +2525,91 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="I18" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="K18" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="N18" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="S18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="V18" t="n">
         <v>10.25</v>
       </c>
       <c r="W18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z18" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC18" t="n">
         <v>100</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>12.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG18" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI18" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
         <v>900</v>
@@ -2435,7 +2653,7 @@
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2811,7 +3029,7 @@
         <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3166,35 +3384,93 @@
           <t>Napredak</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>11</v>
+      </c>
+      <c r="W28" t="n">
+        <v>32</v>
+      </c>
+      <c r="X28" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>45</v>
+      </c>
       <c r="AJ28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -3228,35 +3504,93 @@
           <t>Radnicki Nis</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U29" t="n">
+        <v>15</v>
+      </c>
+      <c r="V29" t="n">
+        <v>12</v>
+      </c>
+      <c r="W29" t="n">
+        <v>40</v>
+      </c>
+      <c r="X29" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>40</v>
+      </c>
       <c r="AJ29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -3318,7 +3652,7 @@
         <v>1.6</v>
       </c>
       <c r="P30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" t="n">
         <v>2.5</v>
@@ -3722,7 +4056,7 @@
         <v>2.55</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
         <v>2.6</v>
@@ -3841,10 +4175,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I35" t="n">
         <v>3</v>
@@ -3868,10 +4202,10 @@
         <v>1.95</v>
       </c>
       <c r="P35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
         <v>1.67</v>
@@ -3889,31 +4223,31 @@
         <v>9.5</v>
       </c>
       <c r="W35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="n">
         <v>6.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC35" t="n">
         <v>41</v>
       </c>
       <c r="AD35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>11</v>
@@ -3966,16 +4300,16 @@
         <v>1.67</v>
       </c>
       <c r="H36" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I36" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L36" t="n">
         <v>1.2</v>
@@ -4091,7 +4425,7 @@
         <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
         <v>1.02</v>
@@ -4142,7 +4476,7 @@
         <v>21</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA37" t="n">
         <v>10</v>
@@ -4210,10 +4544,10 @@
         <v>1.9</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
         <v>1.05</v>
@@ -4228,10 +4562,10 @@
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -4451,7 +4785,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
@@ -4463,7 +4797,7 @@
         <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L40" t="n">
         <v>1.25</v>
@@ -4493,13 +4827,13 @@
         <v>11</v>
       </c>
       <c r="U40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V40" t="n">
         <v>11</v>
       </c>
       <c r="W40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X40" t="n">
         <v>23</v>
@@ -4526,7 +4860,7 @@
         <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG40" t="n">
         <v>21</v>
@@ -4579,7 +4913,7 @@
         <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J41" t="n">
         <v>1.03</v>
@@ -4695,13 +5029,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
         <v>1.05</v>
@@ -4722,22 +5056,22 @@
         <v>1.88</v>
       </c>
       <c r="P42" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q42" t="n">
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T42" t="n">
         <v>7.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
@@ -4820,7 +5154,7 @@
         <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
         <v>4.33</v>
@@ -4951,7 +5285,7 @@
         <v>1.02</v>
       </c>
       <c r="K44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L44" t="n">
         <v>1.14</v>
@@ -4966,7 +5300,7 @@
         <v>2.6</v>
       </c>
       <c r="P44" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q44" t="n">
         <v>3.75</v>
@@ -5002,10 +5336,10 @@
         <v>8</v>
       </c>
       <c r="AB44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD44" t="n">
         <v>17</v>
@@ -5061,13 +5395,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H45" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J45" t="n">
         <v>1.03</v>
@@ -5088,16 +5422,16 @@
         <v>2.4</v>
       </c>
       <c r="P45" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q45" t="n">
         <v>3.75</v>
       </c>
       <c r="R45" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T45" t="n">
         <v>11</v>
@@ -5118,7 +5452,7 @@
         <v>19</v>
       </c>
       <c r="Z45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA45" t="n">
         <v>8</v>
@@ -5186,10 +5520,10 @@
         <v>2.25</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J46" t="n">
         <v>1.05</v>
@@ -5216,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S46" t="n">
         <v>2.05</v>
@@ -5225,7 +5559,7 @@
         <v>8.5</v>
       </c>
       <c r="U46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V46" t="n">
         <v>9</v>
@@ -5457,19 +5791,19 @@
         <v>1.44</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="R48" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S48" t="n">
         <v>1.9</v>
       </c>
       <c r="T48" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U48" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="V48" t="n">
         <v>9</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
@@ -671,7 +671,7 @@
         <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
         <v>1.62</v>
@@ -767,24 +767,24 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M3" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="N3" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="O3" t="n">
         <v>1.42</v>
@@ -793,7 +793,7 @@
         <v>1.57</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>2.22</v>
@@ -802,7 +802,7 @@
         <v>1.52</v>
       </c>
       <c r="T3" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="U3" t="n">
         <v>7</v>
@@ -814,40 +814,40 @@
         <v>14.5</v>
       </c>
       <c r="X3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>45</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AA3" t="n">
         <v>6.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG3" t="n">
         <v>90</v>
       </c>
       <c r="AH3" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
     </row>
@@ -886,39 +886,39 @@
         <v>2.4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="N4" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="O4" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="P4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U4" t="n">
         <v>10.75</v>
@@ -930,43 +930,43 @@
         <v>25</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.7</v>
+        <v>7.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>35</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5">
@@ -1121,19 +1121,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1154,10 +1154,10 @@
         <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1169,19 +1169,19 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
         <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1190,19 +1190,19 @@
         <v>81</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
         <v>67</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
@@ -1270,7 +1270,7 @@
         <v>1.83</v>
       </c>
       <c r="P7" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q7" t="n">
         <v>2.75</v>
@@ -1717,91 +1717,91 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="J11" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="L11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="N11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="S11" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="T11" t="n">
         <v>5.2</v>
       </c>
       <c r="U11" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="V11" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W11" t="n">
-        <v>10.75</v>
+        <v>13.5</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AH11" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI11" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
     </row>
@@ -1837,94 +1837,94 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="M12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="N12" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.91</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.93</v>
-      </c>
       <c r="T12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U12" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="V12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="X12" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -1959,13 +1959,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
         <v>1.09</v>
@@ -1974,40 +1974,40 @@
         <v>6.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="P13" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="R13" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="X13" t="n">
         <v>32</v>
@@ -2019,34 +2019,34 @@
         <v>6.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AF13" t="n">
         <v>8.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
@@ -2081,78 +2081,78 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O14" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="V14" t="n">
         <v>7.6</v>
       </c>
       <c r="W14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AB14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD14" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9.75</v>
       </c>
       <c r="AE14" t="n">
         <v>13.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH14" t="n">
         <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
@@ -2231,19 +2231,19 @@
         <v>11.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AC15" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF15" t="n">
         <v>37</v>
@@ -2255,7 +2255,7 @@
         <v>200</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AJ15" t="n">
         <v>600</v>
@@ -2293,82 +2293,82 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="H16" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>4.65</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P16" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="U16" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="V16" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="W16" t="n">
-        <v>14</v>
+        <v>10.25</v>
       </c>
       <c r="X16" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AE16" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH16" t="n">
         <v>40</v>
       </c>
-      <c r="AH16" t="n">
-        <v>26</v>
-      </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AJ16" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
@@ -2415,16 +2415,16 @@
         <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="N17" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O17" t="n">
         <v>1.7</v>
@@ -2436,10 +2436,10 @@
         <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
         <v>6.7</v>
@@ -2457,40 +2457,40 @@
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA17" t="n">
         <v>6.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF17" t="n">
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ17" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18">
@@ -2528,7 +2528,7 @@
         <v>2.7</v>
       </c>
       <c r="H18" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="I18" t="n">
         <v>2.77</v>
@@ -3017,19 +3017,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3056,7 +3056,7 @@
         <v>1.91</v>
       </c>
       <c r="T24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U24" t="n">
         <v>13</v>
@@ -3068,7 +3068,7 @@
         <v>29</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
         <v>34</v>
@@ -3089,13 +3089,13 @@
         <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
         <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="H25" t="n">
         <v>4.75</v>
@@ -3172,10 +3172,10 @@
         <v>4.33</v>
       </c>
       <c r="R25" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T25" t="n">
         <v>13</v>
@@ -3394,7 +3394,7 @@
         <v>2.47</v>
       </c>
       <c r="J28" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K28" t="n">
         <v>5.7</v>
@@ -3517,7 +3517,7 @@
         <v>1.1</v>
       </c>
       <c r="K29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
         <v>1.45</v>
@@ -3526,7 +3526,7 @@
         <v>2.55</v>
       </c>
       <c r="N29" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="O29" t="n">
         <v>1.53</v>
@@ -3562,7 +3562,7 @@
         <v>50</v>
       </c>
       <c r="Z29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AA29" t="n">
         <v>6.2</v>
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I31" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2.8</v>
       </c>
       <c r="J31" t="n">
         <v>1.06</v>
@@ -3768,10 +3768,10 @@
         <v>3.25</v>
       </c>
       <c r="N31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O31" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -3786,22 +3786,22 @@
         <v>1.83</v>
       </c>
       <c r="T31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
         <v>8.5</v>
@@ -3816,19 +3816,19 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI31" t="n">
         <v>34</v>
@@ -4059,16 +4059,16 @@
         <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J34" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K34" t="n">
         <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="M34" t="n">
         <v>4.5</v>
@@ -4092,7 +4092,7 @@
         <v>2.38</v>
       </c>
       <c r="T34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U34" t="n">
         <v>15</v>
@@ -4202,7 +4202,7 @@
         <v>1.95</v>
       </c>
       <c r="P35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q35" t="n">
         <v>3</v>
@@ -4306,10 +4306,10 @@
         <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L36" t="n">
         <v>1.2</v>
@@ -4366,7 +4366,7 @@
         <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE36" t="n">
         <v>26</v>
@@ -4381,7 +4381,7 @@
         <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="n">
         <v>151</v>
@@ -4580,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
         <v>9</v>
@@ -4589,7 +4589,7 @@
         <v>8.5</v>
       </c>
       <c r="W38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X38" t="n">
         <v>15</v>
@@ -4622,7 +4622,7 @@
         <v>41</v>
       </c>
       <c r="AH38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI38" t="n">
         <v>34</v>
@@ -4797,13 +4797,13 @@
         <v>1.04</v>
       </c>
       <c r="K40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M40" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N40" t="n">
         <v>1.8</v>
@@ -4818,10 +4818,10 @@
         <v>3.25</v>
       </c>
       <c r="R40" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T40" t="n">
         <v>11</v>
@@ -4848,7 +4848,7 @@
         <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC40" t="n">
         <v>41</v>
@@ -5029,19 +5029,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
         <v>1.29</v>
@@ -5062,16 +5062,16 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
         <v>7.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
@@ -5178,7 +5178,7 @@
         <v>2.08</v>
       </c>
       <c r="P43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q43" t="n">
         <v>3.25</v>
@@ -5294,7 +5294,7 @@
         <v>5.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O44" t="n">
         <v>2.6</v>
@@ -5883,7 +5883,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H49" t="n">
         <v>3.35</v>
@@ -5898,7 +5898,7 @@
         <v>7.2</v>
       </c>
       <c r="L49" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M49" t="n">
         <v>3.15</v>
@@ -5913,7 +5913,7 @@
         <v>1.38</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="R49" t="n">
         <v>1.78</v>
@@ -5934,7 +5934,7 @@
         <v>24</v>
       </c>
       <c r="X49" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y49" t="n">
         <v>30</v>
@@ -5958,7 +5958,7 @@
         <v>13.5</v>
       </c>
       <c r="AF49" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG49" t="n">
         <v>30</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="I2" t="n">
         <v>3.6</v>
@@ -671,7 +671,7 @@
         <v>3.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
         <v>1.62</v>
@@ -796,10 +796,10 @@
         <v>2.1</v>
       </c>
       <c r="R3" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
         <v>4.85</v>
@@ -883,63 +883,63 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="H4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N4" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="O4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
         <v>1.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S4" t="n">
         <v>1.7</v>
       </c>
       <c r="T4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
@@ -948,25 +948,25 @@
         <v>100</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
         <v>45</v>
       </c>
       <c r="AJ4" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1121,13 +1121,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H6" t="n">
         <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
         <v>1.05</v>
@@ -1154,10 +1154,10 @@
         <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1175,13 +1175,13 @@
         <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB6" t="n">
         <v>23</v>
@@ -1202,7 +1202,7 @@
         <v>67</v>
       </c>
       <c r="AH6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="n">
         <v>51</v>
@@ -1270,7 +1270,7 @@
         <v>1.83</v>
       </c>
       <c r="P7" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q7" t="n">
         <v>2.75</v>
@@ -1303,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1315,22 +1315,22 @@
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8">
@@ -1717,13 +1717,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="J11" t="n">
         <v>1.1</v>
@@ -1750,16 +1750,16 @@
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="U11" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1777,31 +1777,31 @@
         <v>5.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD11" t="n">
         <v>11.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AH11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI11" t="n">
         <v>65</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>70</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
     </row>
@@ -1837,37 +1837,37 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
       </c>
       <c r="K12" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P12" t="n">
         <v>1.44</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R12" t="n">
         <v>1.8</v>
@@ -1879,52 +1879,52 @@
         <v>12</v>
       </c>
       <c r="U12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="W12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Z12" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC12" t="n">
         <v>70</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AE12" t="n">
         <v>8.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ12" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13">
@@ -1959,91 +1959,91 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="J13" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O13" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="P13" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T13" t="n">
-        <v>10.25</v>
+        <v>11.75</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="V13" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="W13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>11.75</v>
+        <v>10</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG13" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ13" t="n">
         <v>400</v>
@@ -2293,23 +2293,23 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="O16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
         <v>1.39</v>
@@ -2320,46 +2320,46 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="U16" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="V16" t="n">
         <v>7.1</v>
       </c>
       <c r="W16" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
         <v>75</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF16" t="n">
         <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH16" t="n">
         <v>40</v>
@@ -2454,10 +2454,10 @@
         <v>18.5</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z17" t="n">
         <v>6.5</v>
@@ -2472,7 +2472,7 @@
         <v>75</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE17" t="n">
         <v>19.5</v>
@@ -2481,7 +2481,7 @@
         <v>12.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AH17" t="n">
         <v>37</v>
@@ -2591,7 +2591,7 @@
         <v>17</v>
       </c>
       <c r="AC18" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -2662,16 +2662,16 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2768,36 +2768,84 @@
           <t>Noordwijk</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.45</v>
+      </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.65</v>
+      </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="T20" t="n">
+        <v>15</v>
+      </c>
+      <c r="U20" t="n">
+        <v>17</v>
+      </c>
+      <c r="V20" t="n">
+        <v>10</v>
+      </c>
+      <c r="W20" t="n">
+        <v>27</v>
+      </c>
+      <c r="X20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3017,19 +3065,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>2.63</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
         <v>1.07</v>
       </c>
       <c r="K24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L24" t="n">
         <v>1.36</v>
@@ -3038,10 +3086,10 @@
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P24" t="n">
         <v>1.44</v>
@@ -3059,13 +3107,13 @@
         <v>8</v>
       </c>
       <c r="U24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X24" t="n">
         <v>23</v>
@@ -3086,19 +3134,19 @@
         <v>51</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>34</v>
@@ -3139,13 +3187,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
         <v>4.75</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J25" t="n">
         <v>1.01</v>
@@ -3172,19 +3220,19 @@
         <v>4.33</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="T25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U25" t="n">
         <v>11</v>
       </c>
       <c r="V25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W25" t="n">
         <v>13</v>
@@ -3196,7 +3244,7 @@
         <v>17</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA25" t="n">
         <v>10</v>
@@ -3226,7 +3274,7 @@
         <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
@@ -3634,25 +3682,25 @@
         <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L30" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M30" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q30" t="n">
         <v>2.5</v>
@@ -3869,13 +3917,13 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>3.3</v>
       </c>
-      <c r="H32" t="n">
-        <v>3.25</v>
-      </c>
       <c r="I32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J32" t="n">
         <v>1.07</v>
@@ -3896,16 +3944,16 @@
         <v>1.62</v>
       </c>
       <c r="P32" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q32" t="n">
         <v>2.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="T32" t="n">
         <v>8.5</v>
@@ -3917,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="W32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="X32" t="n">
         <v>29</v>
@@ -3929,19 +3977,19 @@
         <v>8</v>
       </c>
       <c r="AA32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
         <v>17</v>
       </c>
       <c r="AC32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD32" t="n">
         <v>6.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
         <v>9.5</v>
@@ -3950,7 +3998,7 @@
         <v>21</v>
       </c>
       <c r="AH32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
         <v>34</v>
@@ -4062,13 +4110,13 @@
         <v>2.63</v>
       </c>
       <c r="J34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
         <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
         <v>4.5</v>
@@ -4080,7 +4128,7 @@
         <v>2.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q34" t="n">
         <v>3.5</v>
@@ -4202,7 +4250,7 @@
         <v>1.95</v>
       </c>
       <c r="P35" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q35" t="n">
         <v>3</v>
@@ -4306,10 +4354,10 @@
         <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L36" t="n">
         <v>1.2</v>
@@ -4324,7 +4372,7 @@
         <v>2.15</v>
       </c>
       <c r="P36" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q36" t="n">
         <v>3.4</v>
@@ -4541,19 +4589,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H38" t="n">
         <v>3.6</v>
       </c>
       <c r="I38" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K38" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -5029,13 +5077,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H42" t="n">
         <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J42" t="n">
         <v>1.06</v>
@@ -5062,16 +5110,16 @@
         <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T42" t="n">
         <v>7.5</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V42" t="n">
         <v>8.5</v>
@@ -5178,7 +5226,7 @@
         <v>2.08</v>
       </c>
       <c r="P43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q43" t="n">
         <v>3.25</v>
@@ -5273,28 +5321,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="K44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L44" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="M44" t="n">
         <v>5.5</v>
       </c>
       <c r="N44" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="O44" t="n">
         <v>2.6</v>
@@ -5523,16 +5571,16 @@
         <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K46" t="n">
         <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M46" t="n">
         <v>3.75</v>
@@ -5559,16 +5607,16 @@
         <v>8.5</v>
       </c>
       <c r="U46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W46" t="n">
         <v>21</v>
       </c>
       <c r="X46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y46" t="n">
         <v>26</v>
@@ -5595,7 +5643,7 @@
         <v>11</v>
       </c>
       <c r="AG46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH46" t="n">
         <v>23</v>
@@ -5645,25 +5693,25 @@
         <v>3.8</v>
       </c>
       <c r="I47" t="n">
-        <v>4.8</v>
+        <v>4.65</v>
       </c>
       <c r="J47" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M47" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N47" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O47" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
         <v>1.35</v>
@@ -5672,16 +5720,16 @@
         <v>2.95</v>
       </c>
       <c r="R47" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S47" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T47" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="U47" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="V47" t="n">
         <v>8</v>
@@ -5690,13 +5738,13 @@
         <v>12</v>
       </c>
       <c r="X47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AA47" t="n">
         <v>7.6</v>
@@ -5711,13 +5759,13 @@
         <v>14.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF47" t="n">
         <v>15.5</v>
       </c>
       <c r="AG47" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="n">
         <v>45</v>
@@ -5726,7 +5774,7 @@
         <v>45</v>
       </c>
       <c r="AJ47" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48">
@@ -5761,19 +5809,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="J48" t="n">
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L48" t="n">
         <v>1.34</v>
@@ -5788,19 +5836,19 @@
         <v>1.72</v>
       </c>
       <c r="P48" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="Q48" t="n">
         <v>2.57</v>
       </c>
       <c r="R48" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
         <v>1.9</v>
       </c>
       <c r="T48" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U48" t="n">
         <v>10.25</v>
@@ -5818,7 +5866,7 @@
         <v>30</v>
       </c>
       <c r="Z48" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA48" t="n">
         <v>6.4</v>
@@ -5827,19 +5875,19 @@
         <v>15</v>
       </c>
       <c r="AC48" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD48" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF48" t="n">
         <v>11</v>
       </c>
       <c r="AG48" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH48" t="n">
         <v>27</v>
@@ -5883,19 +5931,19 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="H49" t="n">
         <v>3.35</v>
       </c>
       <c r="I49" t="n">
-        <v>2.65</v>
+        <v>2.57</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
       </c>
       <c r="K49" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="L49" t="n">
         <v>1.31</v>
@@ -5913,7 +5961,7 @@
         <v>1.38</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="R49" t="n">
         <v>1.78</v>
@@ -5922,16 +5970,16 @@
         <v>1.93</v>
       </c>
       <c r="T49" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U49" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="V49" t="n">
         <v>9.5</v>
       </c>
       <c r="W49" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X49" t="n">
         <v>20</v>
@@ -5940,10 +5988,10 @@
         <v>30</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB49" t="n">
         <v>14.5</v>
@@ -5952,19 +6000,19 @@
         <v>70</v>
       </c>
       <c r="AD49" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF49" t="n">
         <v>10</v>
       </c>
       <c r="AG49" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AH49" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI49" t="n">
         <v>32</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -883,90 +883,90 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.27</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="N4" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P4" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="R4" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T4" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>17</v>
+      </c>
+      <c r="X4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA4" t="n">
         <v>6.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>10</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>22</v>
-      </c>
-      <c r="X4" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>6.1</v>
       </c>
       <c r="AB4" t="n">
         <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AG4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH4" t="n">
         <v>37</v>
       </c>
-      <c r="AH4" t="n">
-        <v>30</v>
-      </c>
       <c r="AI4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
@@ -1121,19 +1121,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>1.33</v>
@@ -1148,28 +1148,28 @@
         <v>1.8</v>
       </c>
       <c r="P6" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Q6" t="n">
         <v>2.75</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U6" t="n">
         <v>6</v>
       </c>
-      <c r="U6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="V6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1181,25 +1181,25 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>81</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="n">
         <v>51</v>
@@ -1243,19 +1243,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L7" t="n">
         <v>1.3</v>
@@ -1303,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1321,16 +1321,16 @@
         <v>8.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
@@ -1376,49 +1376,49 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="N8" t="n">
         <v>2.32</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.35</v>
       </c>
       <c r="O8" t="n">
         <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T8" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U8" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="V8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AA8" t="n">
         <v>6.3</v>
@@ -1427,7 +1427,7 @@
         <v>20</v>
       </c>
       <c r="AC8" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD8" t="n">
         <v>8.75</v>
@@ -1600,43 +1600,43 @@
         <v>1.22</v>
       </c>
       <c r="H10" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I10" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="N10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="R10" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U10" t="n">
         <v>5.4</v>
@@ -1648,40 +1648,40 @@
         <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB10" t="n">
         <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AI10" t="n">
         <v>200</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>150</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
     </row>
@@ -1837,13 +1837,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.25</v>
+        <v>4.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="J12" t="n">
         <v>1.06</v>
@@ -1855,19 +1855,19 @@
         <v>1.3</v>
       </c>
       <c r="M12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="R12" t="n">
         <v>1.8</v>
@@ -1876,55 +1876,55 @@
         <v>1.91</v>
       </c>
       <c r="T12" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="U12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="V12" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="n">
         <v>7.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC12" t="n">
         <v>70</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AE12" t="n">
         <v>8.25</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I15" t="n">
         <v>14</v>
@@ -2216,10 +2216,10 @@
         <v>4.85</v>
       </c>
       <c r="V15" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X15" t="n">
         <v>9.25</v>
@@ -2228,22 +2228,22 @@
         <v>27</v>
       </c>
       <c r="Z15" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
         <v>9.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC15" t="n">
         <v>120</v>
       </c>
       <c r="AD15" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AE15" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
         <v>37</v>
@@ -2255,7 +2255,7 @@
         <v>200</v>
       </c>
       <c r="AI15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
         <v>600</v>
@@ -2442,22 +2442,22 @@
         <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="U17" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="V17" t="n">
         <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z17" t="n">
         <v>6.5</v>
@@ -2466,16 +2466,16 @@
         <v>6.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="AE17" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>12.5</v>
@@ -2484,13 +2484,13 @@
         <v>55</v>
       </c>
       <c r="AH17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI17" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ17" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18">
@@ -2662,16 +2662,16 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2878,36 +2878,84 @@
           <t>Harkemase Boys</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="G21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.8</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2.72</v>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="T21" t="n">
+        <v>20</v>
+      </c>
+      <c r="U21" t="n">
+        <v>27</v>
+      </c>
+      <c r="V21" t="n">
+        <v>13</v>
+      </c>
+      <c r="W21" t="n">
+        <v>55</v>
+      </c>
+      <c r="X21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3074,13 +3122,13 @@
         <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K24" t="n">
         <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
@@ -3098,10 +3146,10 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -3682,10 +3730,10 @@
         <v>3.1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L30" t="n">
         <v>1.36</v>
@@ -3694,13 +3742,13 @@
         <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q30" t="n">
         <v>2.5</v>
@@ -3828,10 +3876,10 @@
         <v>2.63</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
@@ -3944,7 +3992,7 @@
         <v>1.62</v>
       </c>
       <c r="P32" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q32" t="n">
         <v>2.5</v>
@@ -4128,16 +4176,16 @@
         <v>2.25</v>
       </c>
       <c r="P34" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q34" t="n">
         <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S34" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T34" t="n">
         <v>11</v>
@@ -4372,7 +4420,7 @@
         <v>2.15</v>
       </c>
       <c r="P36" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q36" t="n">
         <v>3.4</v>
@@ -4500,7 +4548,7 @@
         <v>3.75</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S37" t="n">
         <v>2.1</v>
@@ -4598,22 +4646,22 @@
         <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K38" t="n">
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M38" t="n">
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O38" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -4720,13 +4768,13 @@
         <v>4.33</v>
       </c>
       <c r="J39" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K39" t="n">
         <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -4744,7 +4792,7 @@
         <v>3.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S39" t="n">
         <v>2.05</v>
@@ -5086,10 +5134,10 @@
         <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L42" t="n">
         <v>1.29</v>
@@ -5302,7 +5350,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>23:15</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -5321,7 +5369,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H44" t="n">
         <v>4</v>
@@ -5330,16 +5378,16 @@
         <v>3.5</v>
       </c>
       <c r="J44" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K44" t="n">
         <v>19</v>
       </c>
       <c r="L44" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="M44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="N44" t="n">
         <v>1.48</v>
@@ -5354,10 +5402,10 @@
         <v>3.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T44" t="n">
         <v>12</v>
@@ -5565,7 +5613,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
         <v>3.5</v>
@@ -5574,13 +5622,13 @@
         <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K46" t="n">
         <v>11</v>
       </c>
       <c r="L46" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M46" t="n">
         <v>3.75</v>
@@ -5809,19 +5857,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="J48" t="n">
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="L48" t="n">
         <v>1.34</v>
@@ -5836,19 +5884,19 @@
         <v>1.72</v>
       </c>
       <c r="P48" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q48" t="n">
         <v>2.57</v>
       </c>
       <c r="R48" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S48" t="n">
         <v>1.9</v>
       </c>
       <c r="T48" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U48" t="n">
         <v>10.25</v>
@@ -5866,7 +5914,7 @@
         <v>30</v>
       </c>
       <c r="Z48" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA48" t="n">
         <v>6.4</v>
@@ -5875,19 +5923,19 @@
         <v>15</v>
       </c>
       <c r="AC48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD48" t="n">
         <v>9</v>
       </c>
       <c r="AE48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
         <v>11</v>
       </c>
       <c r="AG48" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AH48" t="n">
         <v>27</v>
@@ -5931,13 +5979,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="H49" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I49" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="J49" t="n">
         <v>1.06</v>
@@ -5952,16 +6000,16 @@
         <v>3.15</v>
       </c>
       <c r="N49" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="O49" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P49" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R49" t="n">
         <v>1.78</v>
@@ -5970,55 +6018,55 @@
         <v>1.93</v>
       </c>
       <c r="T49" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="U49" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="V49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W49" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="X49" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z49" t="n">
         <v>7.3</v>
       </c>
       <c r="AA49" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB49" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC49" t="n">
         <v>70</v>
       </c>
       <c r="AD49" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG49" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AH49" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI49" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AJ49" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -767,33 +767,33 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="N3" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
         <v>2.25</v>
@@ -805,46 +805,46 @@
         <v>4.85</v>
       </c>
       <c r="U3" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="V3" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
         <v>45</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC3" t="n">
         <v>175</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AE3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF3" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
         <v>90</v>
@@ -889,39 +889,39 @@
         <v>3.35</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M4" t="n">
-        <v>2.65</v>
+        <v>2.77</v>
       </c>
       <c r="N4" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T4" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="U4" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="V4" t="n">
         <v>8.75</v>
@@ -930,28 +930,28 @@
         <v>17</v>
       </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
         <v>6.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF4" t="n">
         <v>12.5</v>
@@ -960,13 +960,13 @@
         <v>50</v>
       </c>
       <c r="AH4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ4" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5">
@@ -1001,25 +1001,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N5" t="n">
         <v>2.5</v>
@@ -1040,7 +1040,7 @@
         <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="U5" t="n">
         <v>11</v>
@@ -1052,7 +1052,7 @@
         <v>26</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
@@ -1061,7 +1061,7 @@
         <v>6.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1121,76 +1121,76 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I6" t="n">
         <v>5.75</v>
       </c>
       <c r="J6" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="M6" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.8</v>
       </c>
-      <c r="P6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T6" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="U6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W6" t="n">
         <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>34</v>
@@ -1205,10 +1205,10 @@
         <v>51</v>
       </c>
       <c r="AI6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>501</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="J7" t="n">
         <v>1.05</v>
@@ -1258,10 +1258,10 @@
         <v>11</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N7" t="n">
         <v>1.98</v>
@@ -1276,16 +1276,16 @@
         <v>2.75</v>
       </c>
       <c r="R7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S7" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T7" t="n">
         <v>11</v>
       </c>
       <c r="U7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="V7" t="n">
         <v>13</v>
@@ -1294,7 +1294,7 @@
         <v>41</v>
       </c>
       <c r="X7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
         <v>41</v>
@@ -1303,7 +1303,7 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
@@ -1312,19 +1312,19 @@
         <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF7" t="n">
         <v>9</v>
       </c>
-      <c r="AF7" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
@@ -1600,43 +1600,43 @@
         <v>1.22</v>
       </c>
       <c r="H10" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="N10" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="P10" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="R10" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T10" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="U10" t="n">
         <v>5.4</v>
@@ -1648,40 +1648,40 @@
         <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y10" t="n">
         <v>40</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
         <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AD10" t="n">
         <v>28</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG10" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH10" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AI10" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
     </row>
@@ -1959,37 +1959,37 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="I13" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O13" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P13" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R13" t="n">
         <v>1.7</v>
@@ -1998,10 +1998,10 @@
         <v>2.05</v>
       </c>
       <c r="T13" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="U13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="V13" t="n">
         <v>12.5</v>
@@ -2016,10 +2016,10 @@
         <v>37</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2031,10 +2031,10 @@
         <v>7.1</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AG13" t="n">
         <v>20</v>
@@ -2081,13 +2081,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2110,49 +2110,49 @@
         <v>10.25</v>
       </c>
       <c r="V14" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="W14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE14" t="n">
         <v>13.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AG14" t="n">
         <v>28</v>
       </c>
       <c r="AH14" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
@@ -2187,23 +2187,23 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="H15" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="O15" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
@@ -2213,40 +2213,40 @@
         <v>5.8</v>
       </c>
       <c r="U15" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="V15" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="W15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X15" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z15" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD15" t="n">
         <v>28</v>
       </c>
       <c r="AE15" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
         <v>500</v>
@@ -2451,10 +2451,10 @@
         <v>8.5</v>
       </c>
       <c r="W17" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>30</v>
@@ -2469,13 +2469,13 @@
         <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>12.5</v>
@@ -2564,19 +2564,19 @@
         <v>1.7</v>
       </c>
       <c r="T18" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="V18" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W18" t="n">
         <v>32</v>
       </c>
       <c r="X18" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
         <v>45</v>
@@ -2594,22 +2594,22 @@
         <v>110</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="AE18" t="n">
         <v>12.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ18" t="n">
         <v>900</v>
@@ -2662,16 +2662,16 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O19" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2906,7 +2906,7 @@
         <v>2.67</v>
       </c>
       <c r="T21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="U21" t="n">
         <v>27</v>
@@ -3122,13 +3122,13 @@
         <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K24" t="n">
         <v>9</v>
       </c>
       <c r="L24" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
@@ -3146,10 +3146,10 @@
         <v>2.63</v>
       </c>
       <c r="R24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T24" t="n">
         <v>8</v>
@@ -3235,13 +3235,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H25" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J25" t="n">
         <v>1.01</v>
@@ -3277,13 +3277,13 @@
         <v>12</v>
       </c>
       <c r="U25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X25" t="n">
         <v>11</v>
@@ -3307,19 +3307,19 @@
         <v>23</v>
       </c>
       <c r="AE25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="n">
         <v>34</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>29</v>
       </c>
       <c r="AJ25" t="n">
         <v>101</v>
@@ -3338,7 +3338,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3550,7 +3550,7 @@
         <v>120</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE28" t="n">
         <v>10.75</v>
@@ -3852,16 +3852,16 @@
         <v>3.2</v>
       </c>
       <c r="J31" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
         <v>2.1</v>
@@ -3876,10 +3876,10 @@
         <v>2.63</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
@@ -3965,31 +3965,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
         <v>2.15</v>
       </c>
       <c r="J32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K32" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N32" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O32" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P32" t="n">
         <v>1.5</v>
@@ -4007,25 +4007,25 @@
         <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W32" t="n">
         <v>41</v>
       </c>
       <c r="X32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y32" t="n">
         <v>41</v>
       </c>
       <c r="Z32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB32" t="n">
         <v>17</v>
@@ -4037,22 +4037,22 @@
         <v>6.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF32" t="n">
         <v>9.5</v>
       </c>
       <c r="AG32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH32" t="n">
         <v>21</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>19</v>
       </c>
       <c r="AI32" t="n">
         <v>34</v>
       </c>
       <c r="AJ32" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
     </row>
     <row r="33">
@@ -4182,10 +4182,10 @@
         <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S34" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T34" t="n">
         <v>11</v>
@@ -4292,10 +4292,10 @@
         <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O35" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="P35" t="n">
         <v>1.36</v>
@@ -4420,7 +4420,7 @@
         <v>2.15</v>
       </c>
       <c r="P36" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q36" t="n">
         <v>3.4</v>
@@ -4548,7 +4548,7 @@
         <v>3.75</v>
       </c>
       <c r="R37" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
         <v>2.1</v>
@@ -4646,22 +4646,22 @@
         <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K38" t="n">
         <v>13</v>
       </c>
       <c r="L38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M38" t="n">
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="O38" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -4768,13 +4768,13 @@
         <v>4.33</v>
       </c>
       <c r="J39" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K39" t="n">
         <v>13</v>
       </c>
       <c r="L39" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
@@ -4792,7 +4792,7 @@
         <v>3.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S39" t="n">
         <v>2.05</v>
@@ -5030,7 +5030,7 @@
         <v>2.2</v>
       </c>
       <c r="P41" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="Q41" t="n">
         <v>3.4</v>
@@ -5402,10 +5402,10 @@
         <v>3.75</v>
       </c>
       <c r="R44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S44" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T44" t="n">
         <v>12</v>
@@ -5506,16 +5506,16 @@
         <v>17</v>
       </c>
       <c r="L45" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="M45" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O45" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="P45" t="n">
         <v>1.25</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-28.xlsx
@@ -656,13 +656,13 @@
         <v>3.6</v>
       </c>
       <c r="J2" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K2" t="n">
         <v>5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M2" t="n">
         <v>2.2</v>
@@ -1001,19 +1001,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>1.44</v>
@@ -1040,19 +1040,19 @@
         <v>1.67</v>
       </c>
       <c r="T5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="W5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="X5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
@@ -1061,7 +1061,7 @@
         <v>6.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB5" t="n">
         <v>17</v>
@@ -1070,19 +1070,19 @@
         <v>67</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>41</v>
@@ -1121,37 +1121,37 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.03</v>
       </c>
       <c r="K6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O6" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="R6" t="n">
         <v>1.91</v>
@@ -1169,10 +1169,10 @@
         <v>8.5</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>26</v>
@@ -1181,7 +1181,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB6" t="n">
         <v>21</v>
@@ -1190,19 +1190,19 @@
         <v>67</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1365,21 +1365,21 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H8" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="I8" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="M8" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="N8" t="n">
         <v>2.32</v>
@@ -1388,28 +1388,28 @@
         <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R8" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
         <v>1.6</v>
       </c>
       <c r="T8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="V8" t="n">
         <v>9</v>
       </c>
       <c r="W8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X8" t="n">
         <v>18.5</v>
@@ -1418,28 +1418,28 @@
         <v>40</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC8" t="n">
         <v>120</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
         <v>20</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AH8" t="n">
         <v>50</v>
@@ -1603,7 +1603,7 @@
         <v>5.5</v>
       </c>
       <c r="I10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.04</v>
@@ -1621,19 +1621,19 @@
         <v>1.65</v>
       </c>
       <c r="O10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="P10" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
@@ -1648,10 +1648,10 @@
         <v>6.6</v>
       </c>
       <c r="X10" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="n">
         <v>8.5</v>
@@ -1660,28 +1660,28 @@
         <v>11.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
         <v>175</v>
       </c>
       <c r="AD10" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG10" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
         <v>200</v>
       </c>
       <c r="AI10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
     </row>
@@ -1720,7 +1720,7 @@
         <v>1.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
         <v>5.1</v>
@@ -1729,13 +1729,13 @@
         <v>1.1</v>
       </c>
       <c r="K11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="N11" t="n">
         <v>2.3</v>
@@ -1756,10 +1756,10 @@
         <v>1.65</v>
       </c>
       <c r="T11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="U11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="V11" t="n">
         <v>8.5</v>
@@ -1768,40 +1768,40 @@
         <v>13.5</v>
       </c>
       <c r="X11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG11" t="n">
         <v>100</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI11" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
     </row>
@@ -1959,19 +1959,19 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.05</v>
+        <v>3.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="J13" t="n">
         <v>1.08</v>
       </c>
       <c r="K13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -1980,16 +1980,16 @@
         <v>3.05</v>
       </c>
       <c r="N13" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="R13" t="n">
         <v>1.7</v>
@@ -1998,28 +1998,28 @@
         <v>2.05</v>
       </c>
       <c r="T13" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="U13" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="W13" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="X13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB13" t="n">
         <v>12</v>
@@ -2028,22 +2028,22 @@
         <v>55</v>
       </c>
       <c r="AD13" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AE13" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>400</v>
@@ -2084,20 +2084,20 @@
         <v>2.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O14" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
@@ -2110,7 +2110,7 @@
         <v>10.25</v>
       </c>
       <c r="V14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="W14" t="n">
         <v>18</v>
@@ -2122,22 +2122,22 @@
         <v>18</v>
       </c>
       <c r="Z14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD14" t="n">
         <v>10</v>
       </c>
-      <c r="AC14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AE14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF14" t="n">
         <v>8.75</v>
@@ -2146,13 +2146,13 @@
         <v>28</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
@@ -2187,78 +2187,78 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>14.5</v>
+        <v>10.25</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="O15" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U15" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="V15" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="W15" t="n">
-        <v>5.7</v>
+        <v>7.2</v>
       </c>
       <c r="X15" t="n">
         <v>9</v>
       </c>
       <c r="Y15" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>11.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA15" t="n">
-        <v>9.5</v>
+        <v>7.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH15" t="n">
         <v>110</v>
       </c>
-      <c r="AD15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>200</v>
-      </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
     </row>
     <row r="16">
@@ -2293,29 +2293,29 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>6.4</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="O16" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
@@ -2323,49 +2323,49 @@
         <v>5</v>
       </c>
       <c r="U16" t="n">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="V16" t="n">
         <v>7.1</v>
       </c>
       <c r="W16" t="n">
-        <v>9.75</v>
+        <v>7.7</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
         <v>25</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AG16" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AH16" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI16" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
         <v>500</v>
@@ -2647,13 +2647,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J19" t="n">
         <v>1.05</v>
@@ -2662,16 +2662,16 @@
         <v>11</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2680,22 +2680,22 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V19" t="n">
         <v>9</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -2722,16 +2722,16 @@
         <v>17</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG19" t="n">
         <v>34</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
         <v>201</v>
@@ -3721,13 +3721,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H30" t="n">
         <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J30" t="n">
         <v>1.08</v>
@@ -3763,13 +3763,13 @@
         <v>7</v>
       </c>
       <c r="U30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X30" t="n">
         <v>21</v>
@@ -3784,13 +3784,13 @@
         <v>6</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>51</v>
       </c>
       <c r="AD30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -3808,7 +3808,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31">
@@ -3843,13 +3843,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.07</v>
@@ -3858,16 +3858,16 @@
         <v>9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N31" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="O31" t="n">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="P31" t="n">
         <v>1.44</v>
@@ -3885,7 +3885,7 @@
         <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V31" t="n">
         <v>9.5</v>
@@ -3894,7 +3894,7 @@
         <v>21</v>
       </c>
       <c r="X31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
         <v>29</v>
@@ -3918,7 +3918,7 @@
         <v>15</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>34</v>
@@ -3977,7 +3977,7 @@
         <v>1.08</v>
       </c>
       <c r="K32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L32" t="n">
         <v>1.44</v>
@@ -3989,7 +3989,7 @@
         <v>2.35</v>
       </c>
       <c r="O32" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="P32" t="n">
         <v>1.5</v>
@@ -4271,13 +4271,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J35" t="n">
         <v>1.05</v>
@@ -4292,10 +4292,10 @@
         <v>3.75</v>
       </c>
       <c r="N35" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O35" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="P35" t="n">
         <v>1.36</v>
@@ -4304,16 +4304,16 @@
         <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T35" t="n">
         <v>9</v>
       </c>
       <c r="U35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V35" t="n">
         <v>9.5</v>
@@ -4352,7 +4352,7 @@
         <v>29</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
         <v>29</v>
@@ -4420,7 +4420,7 @@
         <v>2.15</v>
       </c>
       <c r="P36" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="Q36" t="n">
         <v>3.4</v>
@@ -4536,7 +4536,7 @@
         <v>5.5</v>
       </c>
       <c r="N37" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O37" t="n">
         <v>2.6</v>
@@ -4646,10 +4646,10 @@
         <v>4.2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K38" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L38" t="n">
         <v>1.25</v>
@@ -4658,10 +4658,10 @@
         <v>3.75</v>
       </c>
       <c r="N38" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O38" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P38" t="n">
         <v>1.36</v>
@@ -4881,22 +4881,22 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J40" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K40" t="n">
         <v>13</v>
       </c>
       <c r="L40" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
@@ -5003,7 +5003,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H41" t="n">
         <v>3.8</v>
@@ -5024,25 +5024,25 @@
         <v>4.5</v>
       </c>
       <c r="N41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P41" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="Q41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R41" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S41" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U41" t="n">
         <v>10</v>
@@ -5087,10 +5087,10 @@
         <v>29</v>
       </c>
       <c r="AI41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ41" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42">
@@ -5134,10 +5134,10 @@
         <v>4.1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
         <v>1.29</v>
@@ -5268,10 +5268,10 @@
         <v>4</v>
       </c>
       <c r="N43" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="O43" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="P43" t="n">
         <v>1.33</v>
@@ -5369,13 +5369,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
         <v>1.02</v>
@@ -5396,10 +5396,10 @@
         <v>2.6</v>
       </c>
       <c r="P44" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R44" t="n">
         <v>1.44</v>
@@ -5429,7 +5429,7 @@
         <v>21</v>
       </c>
       <c r="AA44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AB44" t="n">
         <v>12</v>
@@ -5441,10 +5441,10 @@
         <v>17</v>
       </c>
       <c r="AE44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG44" t="n">
         <v>41</v>
@@ -5735,94 +5735,94 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="H47" t="n">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="I47" t="n">
-        <v>4.65</v>
+        <v>6.7</v>
       </c>
       <c r="J47" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L47" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M47" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="P47" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="R47" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="S47" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="T47" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U47" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="V47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="W47" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="X47" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Y47" t="n">
         <v>24</v>
       </c>
       <c r="Z47" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>7.6</v>
+        <v>8.75</v>
       </c>
       <c r="AB47" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AC47" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AI47" t="n">
         <v>65</v>
       </c>
-      <c r="AD47" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="48">
@@ -5869,7 +5869,7 @@
         <v>1.07</v>
       </c>
       <c r="K48" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="L48" t="n">
         <v>1.34</v>
@@ -5890,16 +5890,16 @@
         <v>2.57</v>
       </c>
       <c r="R48" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
         <v>1.9</v>
       </c>
       <c r="T48" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="U48" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="V48" t="n">
         <v>9</v>
@@ -5914,7 +5914,7 @@
         <v>30</v>
       </c>
       <c r="Z48" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA48" t="n">
         <v>6.4</v>
@@ -5926,7 +5926,7 @@
         <v>75</v>
       </c>
       <c r="AD48" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE48" t="n">
         <v>15</v>
